--- a/email_prompt_test/automation_testing_email.xlsx
+++ b/email_prompt_test/automation_testing_email.xlsx
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E24" s="19" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F24" s="14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G24" s="25" t="n"/>
@@ -1368,12 +1368,12 @@
       </c>
       <c r="E29" s="19" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F29" s="14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="G29" s="25" t="n"/>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="E49" s="19" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F49" s="14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2409,12 +2409,12 @@
       </c>
       <c r="E61" s="26" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="E67" s="27" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F67" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="E82" s="27" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>ORDER_STATUS</t>
         </is>
       </c>
       <c r="F82" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       </c>
       <c r="E91" s="27" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F91" s="14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -3769,12 +3769,12 @@
       </c>
       <c r="E104" s="27" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F104" s="14" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -4896,12 +4896,12 @@
       </c>
       <c r="E139" s="14" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="F139" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>

--- a/email_prompt_test/automation_testing_email.xlsx
+++ b/email_prompt_test/automation_testing_email.xlsx
@@ -418,7 +418,7 @@
       </c>
       <c r="E2" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8, RETURNS - 0.7</t>
         </is>
       </c>
       <c r="F2" s="11" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="G2" s="11" t="inlineStr">
         <is>
-          <t>The user's request for a replacement does not fit neatly into the defined intents of ORDER_STATUS, RETURNS, or DAMAGES. It suggests a desire for a resolution regarding a product issue but does not specify a return or damage claim, thus falling under OTHERS.</t>
+          <t>The user is requesting a replacement for a product they received that is different from what they ordered, which falls under the category of returning a product.</t>
         </is>
       </c>
       <c r="H2" s="11" t="inlineStr">
@@ -438,12 +438,12 @@
       </c>
       <c r="I2" s="11" t="inlineStr">
         <is>
-          <t>Thank you for providing your order number #295938. We will initiate the replacement process for the product that was different from what you ordered. Please allow us some time to process this request.</t>
+          <t>We can assist you with the replacement for your order. Please allow us a moment to process your request.</t>
         </is>
       </c>
       <c r="J2" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requested a replacement for the product they received, which was different from what they ordered. This aligns with the REPLACEMENT sub intent.</t>
+          <t>The user explicitly requested a replacement for the product they received, which is different from what they ordered. This aligns with the REPLACEMENT sub intent.</t>
         </is>
       </c>
       <c r="K2" s="11" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95, OTHERS - 0.05</t>
         </is>
       </c>
       <c r="F3" s="11" t="inlineStr">
@@ -488,22 +488,22 @@
       </c>
       <c r="G3" s="11" t="inlineStr">
         <is>
-          <t>The user is specifically inquiring about the availability of a product using its SKU ID, which falls under the PRODUCT_AVAILABILITY intent.</t>
+          <t>The user is specifically inquiring about the availability of a product using its SKU ID, which directly aligns with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95, OTHERS - 0.05</t>
         </is>
       </c>
       <c r="I3" s="11" t="inlineStr">
         <is>
-          <t>The product with SKU ID 138-111312 is currently being checked for availability. Please hold on for a moment.</t>
+          <t>The product with SKU ID 138-111312 is currently available. Please let me know if you need further assistance.</t>
         </is>
       </c>
       <c r="J3" s="11" t="inlineStr">
         <is>
-          <t>The user is specifically inquiring about the availability of a product using its SKU ID, which directly aligns with the STOCK_STATUS sub intent.</t>
+          <t>The user is specifically inquiring about the availability of a product using its SKU ID, which directly aligns with the STOCK_STATUS sub intent. The mention of 'latest sports news' is irrelevant to the product availability inquiry, but the primary focus is on checking stock status.</t>
         </is>
       </c>
       <c r="K3" s="11" t="inlineStr">
@@ -538,17 +538,17 @@
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS - 0.7, RETURNS - 0.5</t>
         </is>
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
-          <t>We can offer you a discount on your next order if you choose to keep the damaged product. Please let us know your decision.</t>
+          <t>Thank you for your suggestion! While I can't guarantee a discount, I will pass your request along to the appropriate team for consideration.</t>
         </is>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about a discount in relation to accepting a damaged product, which indicates a concern about the product's condition and a desire to resolve the issue, aligning with the DAMAGES intent.</t>
+          <t>The user's message discusses a potential discount related to accepting a damaged product, which does not fall under the specific intents of order status, product availability, damages, returns, trade application, or banter. Therefore, it is classified as 'OTHERS' as it involves a request that is not clearly defined within the provided intents.</t>
         </is>
       </c>
       <c r="H4" s="11" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="K4" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L4" s="11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.9</t>
         </is>
       </c>
       <c r="F5" s="11" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
-          <t>The user's last message is a simple expression of gratitude, which aligns with the BANTER intent that handles casual conversation and friendly comments.</t>
+          <t>The user's last message expresses gratitude, which aligns with the intent of casual conversation or friendly comments, classified as BANTER.</t>
         </is>
       </c>
       <c r="H5" s="11" t="n"/>
@@ -646,27 +646,27 @@
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
-          <t>I will check the status of your order and get back to you shortly.</t>
+          <t>Can you provide me with your order ID or any details regarding your order?</t>
         </is>
       </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
-          <t>The user is specifically inquiring about the status of their order, which aligns with the ORDER_STATUS intent.</t>
+          <t>The user is explicitly asking for the status of their order, which falls under the ORDER_STATUS intent as it relates to inquiries about the status of an order that has already been placed.</t>
         </is>
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
-          <t>I can check the status of your order for you. Please provide me with your order ID.</t>
+          <t>Can you provide me with your order number so I can check the status?</t>
         </is>
       </c>
       <c r="J6" s="11" t="inlineStr">
@@ -706,42 +706,42 @@
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
-          <t>Please provide the order number</t>
+          <t>please provide the order number</t>
         </is>
       </c>
       <c r="G7" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return a product, which falls under the RETURNS intent as they are providing an order number for a return process.</t>
+          <t>The user is requesting to return a product, which falls under the RETURNS intent as they are providing an order number for the return process.</t>
         </is>
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.85, QUERIES - 0.75</t>
         </is>
       </c>
       <c r="I7" s="11" t="inlineStr">
         <is>
-          <t>Please provide the order number.</t>
+          <t>please provide the order number</t>
         </is>
       </c>
       <c r="J7" s="11" t="inlineStr">
         <is>
-          <t>The user is expressing a desire to return a product, which indicates they are initiating the return process. The bot's response is asking for the order number to proceed with the return.</t>
+          <t>The user has expressed a desire to return a product and has provided an order number, indicating they are initiating the return process. The bot's response is asking for the order number to proceed, which aligns with the RETURNS_PROCESSING intent. However, it could also be seen as a general query about the return process, hence the inclusion of QUERIES as a secondary intent.</t>
         </is>
       </c>
       <c r="K7" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L7" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -766,32 +766,32 @@
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
         <is>
-          <t>Thank you for providing the order number. We will send you a new return label shortly.</t>
+          <t>Can you please provide a valid order number, so that we can provide order details?</t>
         </is>
       </c>
       <c r="G8" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return a dining chair and has provided an order number, which indicates a return process is being initiated. This aligns with the RETURNS intent.</t>
+          <t>The user is requesting to return a dining chair, which falls under the category of returns. The bot's response is seeking an order number to process the return, confirming the intent of handling a return request.</t>
         </is>
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.95</t>
         </is>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
-          <t>We can assist you with that. A new return label will be sent to you shortly.</t>
+          <t>Can you please provide a valid order number, so that we can provide order details?</t>
         </is>
       </c>
       <c r="J8" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requested a new return label to return a dining chair, indicating the initiation of the return process.</t>
+          <t>The user is requesting a new return label to return a dining chair, which falls under the category of initiating the return process.</t>
         </is>
       </c>
       <c r="K8" s="11" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>RETURNS - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
         <is>
-          <t>I can assist you with the refund process, but changing the delivery address for a canceled order may not be possible. Please confirm if you would like to proceed with the refund request.</t>
+          <t>I can assist you with the refund process, but changing the delivery address for a canceled order may require further assistance from our customer service team.</t>
         </is>
       </c>
       <c r="G9" s="11" t="inlineStr">
@@ -841,17 +841,17 @@
       </c>
       <c r="H9" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>REFUND - 0.85, RETURNS_PROCESSING - 0.75</t>
         </is>
       </c>
       <c r="I9" s="11" t="inlineStr">
         <is>
-          <t>I understand that you would like to apply for a refund. Please provide your order details so I can assist you further.</t>
+          <t>To apply for a refund, please provide your order details, and I can assist you with the process. Regarding changing your delivery address, please let me know your new address, and I will check if it can be updated.</t>
         </is>
       </c>
       <c r="J9" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly mentions applying for a refund in their last message, which indicates a clear intent related to refunds.</t>
+          <t>The user is inquiring about applying for a refund, which directly relates to the REFUND intent. Additionally, the mention of changing the delivery address suggests a need for assistance with the order, which could also relate to RETURNS_PROCESSING as it involves managing the order's status.</t>
         </is>
       </c>
       <c r="K9" s="11" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95, RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -896,22 +896,22 @@
       </c>
       <c r="G10" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the process for returning a damaged item and whether there are any time constraints for the return, which falls under the category of damages.</t>
+          <t>The user is inquiring about the process of returning a damaged item and whether it can be returned after 30 days, which falls under the category of damages.</t>
         </is>
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.85, DAMAGED_DURING_SHIPPING - 0.75</t>
         </is>
       </c>
       <c r="I10" s="11" t="inlineStr">
         <is>
-          <t>To return a damaged item, please follow the return instructions provided on our website. If you are past the 30-day window, please contact customer service for assistance.</t>
+          <t>You can return a damaged item within 30 days. Please provide photos of the damage to proceed.</t>
         </is>
       </c>
       <c r="J10" s="11" t="inlineStr">
         <is>
-          <t>The user is asking specifically about the process of returning a damaged item and inquiring about the return policy after 30 days, which indicates a request to return a damaged item.</t>
+          <t>The user is inquiring about the process of returning a damaged item, which aligns with the DAMAGED_RETURN_REQUEST sub intent. Additionally, the mention of damage suggests a connection to DAMAGED_DURING_SHIPPING, as the context implies the item was damaged during shipping.</t>
         </is>
       </c>
       <c r="K10" s="11" t="inlineStr">
@@ -946,32 +946,32 @@
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
         <is>
-          <t>The product base Company is currently in stock.</t>
+          <t>The product base Company is in stock.</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of a product, which aligns with the intent of checking product availability.</t>
+          <t>The user's inquiry about the availability of the 'product base Company' indicates they are checking if this product is currently in stock, which aligns with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_QUERIES</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>Can you please specify what information you would like to know about the product base?</t>
+          <t>Can you provide more details about the product base you are inquiring about?</t>
         </is>
       </c>
       <c r="J11" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is about obtaining information regarding the 'product base Company', which falls under general queries about the product itself rather than stock availability.</t>
+          <t>The user's last message does not inquire about the availability of a specific product but rather asks for information about a product base company, which falls outside the defined sub intents.</t>
         </is>
       </c>
       <c r="K11" s="11" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>Hi there, Unfortunately, I cannot assist with changing the shipping address after an order has been placed. Please contact customer support for further assistance. Best Regards</t>
+          <t>Hi there, This is a question type the AI bot is not currently programmed to support Best Regards</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about changing the shipping address after placing an order does not fall under any specific intent related to order status, product availability, damages, returns, or trade applications. It is a general question that does not have a clear intent, thus classified as 'OTHERS'.</t>
+          <t>The user's inquiry about changing the shipping address after placing an order does not fit into any of the specified intents. It is a general question about order management rather than a specific inquiry about order status, product availability, damages, returns, or trade applications.</t>
         </is>
       </c>
       <c r="H12" s="11" t="n"/>
@@ -1054,32 +1054,32 @@
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
         <is>
-          <t>Your order is on its way! I can help you with the shipping address update. Please provide the new address you'd like to use.</t>
+          <t>Your order will arrive soon. Please provide your order number to check the shipping address update.</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the arrival time of their order, which falls under the category of checking the status of an order. Additionally, they are asking about updating their shipping address, which is related to the order status.</t>
+          <t>The user is inquiring about the arrival time of their order and also asking about updating the shipping address, which relates directly to the status of their order.</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>SHIPPING_UPDATES - 0.95, ORDER_MODIFICATIONS - 0.85</t>
         </is>
       </c>
       <c r="I13" s="11" t="inlineStr">
         <is>
-          <t>I can help you with tracking your order and updating your shipping address. Please provide your order number for tracking, and let me know the new shipping address you'd like to use.</t>
+          <t>To track your order, please provide your order number. Additionally, I can assist you with updating your shipping address once I have your order details.</t>
         </is>
       </c>
       <c r="J13" s="11" t="inlineStr">
         <is>
-          <t>The user's message inquires about both the estimated arrival of the order (which falls under SHIPPING_UPDATES) and the ability to update the shipping address (which falls under ORDER_MODIFICATIONS). Since it mentions multiple sub intents, it is classified as OTHERS.</t>
+          <t>The user's inquiry about tracking their order aligns with the SHIPPING_UPDATES intent, while the request to update the shipping address suggests a potential ORDER_MODIFICATIONS intent.</t>
         </is>
       </c>
       <c r="K13" s="11" t="inlineStr">
@@ -1114,17 +1114,17 @@
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.9, ORDER_STATUS - 0.7</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
         <is>
-          <t>To process your return, please provide your order number so we can assist you further. Regarding the shipping date, I can check that for you once I have your order details.</t>
+          <t>To initiate the return process, please provide your order number so we can assist you further. Additionally, I will check the shipping details for you.</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about returning an item they do not like, which falls under the RETURNS intent. Additionally, they are asking about the shipping date, but the primary focus is on the return process.</t>
+          <t>The user is inquiring about the return process for an item they do not like, which falls under the RETURNS intent. They also mention checking the shipping details, but the primary focus is on returning the product.</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t>You can return an item if you don't like it, but I will need to check the specific return policy for your order. Please provide your order number for more details.</t>
+          <t>You can return an item if you don't like it, but I will need to check the specific return policy for your order. Please provide your order number for further assistance.</t>
         </is>
       </c>
       <c r="J14" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the possibility of returning an item they do not like, which falls under the return policy. They also ask about the shipping date, indicating a need for information rather than initiating a return process.</t>
+          <t>The user is inquiring about the possibility of returning an item they do not like and is also asking about the shipping details, which indicates a need for information regarding the return policy.</t>
         </is>
       </c>
       <c r="K14" s="11" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 1.0</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -1184,32 +1184,32 @@
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>The user is explicitly requesting guidance on how to return specific order IDs, which falls under the RETURNS intent.</t>
+          <t>The user is explicitly requesting guidance on how to return specific orders, which falls under the RETURNS intent.</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.85, QUERIES - 0.75</t>
         </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
-          <t>I can help you with the return process for your orders. Please provide the reason for the return and I will guide you through the next steps.</t>
+          <t>I can assist you with the return process for your orders. Please provide the order IDs again, and I will guide you through the steps.</t>
         </is>
       </c>
       <c r="J15" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requests to return two specific orders and asks for guidance on the return process, which falls under the RETURNS_PROCESSING sub-intent.</t>
+          <t>The user explicitly requests to return two orders and seeks guidance on the return process, which aligns with the RETURNS_PROCESSING intent. However, the bot's previous response indicates a limitation in handling multiple product queries, suggesting a potential overlap with QUERIES as the user is seeking clarification on how to proceed.</t>
         </is>
       </c>
       <c r="K15" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L15" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.9, OTHERS - 0.1</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>RETURN_POLICY</t>
+          <t>RETURN_POLICY - 0.95</t>
         </is>
       </c>
       <c r="I16" s="11" t="inlineStr">
         <is>
-          <t>The return policy for this product allows returns within 30 days of purchase, provided the item is in its original condition and packaging.</t>
+          <t>The return policy for this product allows returns within 30 days of purchase, provided the item is in its original condition.</t>
         </is>
       </c>
       <c r="J16" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the return policy for a specific product, which falls under the RETURN_POLICY sub intent.</t>
+          <t>The user is asking specifically about the return policy for a product, which falls under the RETURN_POLICY sub intent.</t>
         </is>
       </c>
       <c r="K16" s="11" t="inlineStr">
@@ -1294,22 +1294,22 @@
       </c>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F17" s="11" t="inlineStr">
         <is>
-          <t>Your order is currently being processed. We will notify you once it ships.</t>
+          <t>The return request is processed.</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their order, which aligns with the ORDER_STATUS intent.</t>
+          <t>The user is inquiring about an update on their order, which aligns with the ORDER_STATUS intent. The bot's likely response indicates that it is addressing the user's request for information regarding their order status.</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I17" s="11" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J17" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about an update on their order, which aligns with the SHIPPING_UPDATES sub-intent as it specifically relates to the status of an order that has already been placed.</t>
+          <t>The user is inquiring about the status of their order, which aligns with the SHIPPING_UPDATES sub intent as it specifically seeks information regarding the order's progress.</t>
         </is>
       </c>
       <c r="K17" s="11" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
@@ -1364,22 +1364,22 @@
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>The user is explicitly requesting to cancel their order and obtain a refund, which falls under the RETURNS intent as it involves returning a product that has already been paid for.</t>
+          <t>The user explicitly requests to cancel their order and obtain a refund, which falls under the RETURNS intent as it involves returning a product that has already been paid for.</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>REFUND - 0.95</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>I can assist you with your refund request. Please allow me a moment to process this for you.</t>
+          <t>I can assist you with the refund process for your order. Please provide me with your order details.</t>
         </is>
       </c>
       <c r="J18" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requested a refund for their order, indicating a clear intent to receive their money back after canceling the order.</t>
+          <t>The user explicitly requests a refund for their order, indicating a clear intent related to the refund process.</t>
         </is>
       </c>
       <c r="K18" s="11" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F19" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your inquiry about payment options. We offer several payment methods including credit cards, PayPal, and bank transfers. If you have a specific method in mind, please let us know!</t>
+          <t>Thank you for your inquiry about payment options. We offer several payment methods including credit cards, PayPal, and bank transfers. Please let me know if you need further assistance!</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about payment options does not fit into any of the specific intents related to order status, product availability, damages, returns, trade applications, or banter. Therefore, it is classified as 'OTHERS' as it falls outside the scope of the defined intents.</t>
+          <t>The user's inquiry about payment options does not fall under any specific category related to orders, products, damages, or returns. It is a general question about payment methods, which is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
@@ -1476,32 +1476,32 @@
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
         <is>
-          <t>I can provide you with the order confirmation details for order #295938. Please hold on a moment while I retrieve that information for you.</t>
+          <t>I understand that you need the order confirmation sent to a different email. Unfortunately, I cannot resend the confirmation directly, but I can assist you with any other details you may need regarding your order.</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting the order confirmation details for an order they cannot access due to it being sent to a different email. This falls under the category of inquiring about the status of an order.</t>
+          <t>The user's request does not specifically inquire about the status of an order or its details but rather asks for a resend of the order confirmation to a different email. This falls outside the specific intents and is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>ORDER_CONFIRMATION</t>
+          <t>ORDER_CONFIRMATION - 0.85</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>I can provide you with the order confirmation details for your order #295938. Please find the details below.</t>
+          <t>I can provide you with the order confirmation details for your order. Please hold on a moment while I retrieve that information.</t>
         </is>
       </c>
       <c r="J20" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting the order confirmation details to be sent to a different email address because they do not have access to the original email. This clearly indicates an inquiry about the confirmation of an order.</t>
+          <t>The user is requesting the order confirmation details because they do not have access to the email where the confirmation was sent. This directly relates to the ORDER_CONFIRMATION sub intent.</t>
         </is>
       </c>
       <c r="K20" s="11" t="inlineStr">
@@ -1536,27 +1536,27 @@
       </c>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F21" s="11" t="inlineStr">
         <is>
-          <t>The dispatch status for your order #295947 is currently being processed. We will update you as soon as it is dispatched.</t>
+          <t>The order details are given.</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>The user is specifically inquiring about the dispatch status of their order, which falls under the intent of ORDER_STATUS.</t>
+          <t>The user's last message explicitly inquires about the dispatch status of their order, which falls under the intent of ORDER_STATUS as it seeks information regarding the status of an already placed order.</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I21" s="11" t="inlineStr">
         <is>
-          <t>The dispatch status for your order #295947 is currently being processed. We will update you as soon as it ships.</t>
+          <t>The order details are given.</t>
         </is>
       </c>
       <c r="J21" s="11" t="inlineStr">
@@ -1596,32 +1596,32 @@
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.9, OTHERS - 0.1</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that a leg of your chair is missing. We will look into this issue and get back to you shortly.</t>
+          <t>I apologize for the inconvenience. It seems that a leg of your chair is missing. We will look into this issue and get back to you shortly.</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>The user is reporting a specific issue with a product they received, indicating that a part of the chair is missing, which falls under the category of product damage or defect.</t>
+          <t>The user's message indicates that a part of the product (a leg of the chair) is missing, which falls under the category of product damage or issues related to the product received. Therefore, the intent is classified as DAMAGES.</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>MISSING_ITEMS</t>
+          <t>MISSING_ITEMS - 0.95</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
-          <t>We apologize for the inconvenience. We will look into the missing leg of the chair from your order #295947 and get back to you shortly.</t>
+          <t>I understand that a leg of the chair is missing from your order. I will look into this issue and get back to you shortly.</t>
         </is>
       </c>
       <c r="J22" s="11" t="inlineStr">
         <is>
-          <t>The user is reporting a missing part (a leg of the chair) from their order, which falls under the MISSING_ITEMS sub-intent.</t>
+          <t>The user is reporting a missing part (a leg of the chair) from their order, which directly aligns with the MISSING_ITEMS sub intent.</t>
         </is>
       </c>
       <c r="K22" s="11" t="inlineStr">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F23" s="11" t="inlineStr">
         <is>
-          <t>Unfortunately, I cannot assist with applying coupon codes to your current order. Please check our website for more information on how to use your coupon.</t>
+          <t>The order details are given</t>
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about applying a coupon code does not fit into any of the specified intents, as it does not directly relate to order status, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's inquiry about applying a coupon code does not fit into any of the specified intents related to order status, product availability, damages, returns, or trade applications. It is more of a general question about the use of a coupon, which falls under 'OTHERS'.</t>
         </is>
       </c>
       <c r="H23" s="11" t="n"/>
@@ -1704,17 +1704,17 @@
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F24" s="11" t="inlineStr">
         <is>
-          <t>The warranty details for the product are as follows...</t>
+          <t>The product details are given</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about the warranty does not fit into any of the specific intents related to order status, product availability, damages, returns, or trade applications. It is a general question about warranty information, which falls outside the defined intents.</t>
+          <t>The user's last message inquires about the warranty of a product, which does not fit into any of the specified intents. The bot's response provides product details but does not address the warranty question directly, leading to the classification as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H24" s="11" t="n"/>
@@ -1752,17 +1752,17 @@
       </c>
       <c r="E25" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F25" s="11" t="inlineStr">
         <is>
-          <t>It seems there has been a mix-up with your order. Please provide your order number so we can assist you further.</t>
+          <t>I'm sorry to hear about the mix-up with your order. Please provide your order number so I can assist you further.</t>
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>The user's message indicates a product mismatch but does not specifically request a return or mention damage. It is unclear whether they want to return the bench or seek further assistance, which leads to classifying it as 'OTHERS'.</t>
+          <t>The user's message indicates a product mismatch but does not specifically request a return or inquire about the status of an order. Therefore, it falls under 'OTHERS' as it does not fit the defined intents.</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F26" s="11" t="inlineStr">
         <is>
-          <t>I can help you with your order details. However, I need to clarify what specific information you are looking for regarding your invoice.</t>
+          <t>I can help you with your order details. Please provide me with your order number so I can assist you further.</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>The user's request for an invoice does not specifically inquire about the status of an order or product availability, making it unclear and falling outside the defined intents.</t>
+          <t>The user's request for an invoice does not specifically inquire about the status of an order or product availability, and it does not fit into the other defined intents. Therefore, it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H26" s="11" t="n"/>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E27" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="F27" s="11" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to change their shipping address, which does not fall under any specific intent related to order status, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's request to change the shipping address does not fall under any specific intent related to order status, product availability, damages, returns, or trade applications. It is a general request for assistance, which is why it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H27" s="11" t="n"/>
@@ -1908,32 +1908,32 @@
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">
         <is>
-          <t>You can still proceed with the return even if you don't have the original packaging. Please let me know how you would like to proceed.</t>
+          <t>You can proceed with the return process even without the original packaging. Please let me know if you need further assistance.</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return an order and mentions that they do not have the original packaging, which aligns with the RETURNS intent.</t>
+          <t>The user explicitly states a desire to return their order and mentions the loss of original packaging, which aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.95</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>Unfortunately, since you do not have the original packaging, we will need to review your request further. Please provide any additional details about the item and your order.</t>
+          <t>I'm sorry, but since you have lost the original packing, the return process may be affected. Please check our return policy for more details.</t>
         </is>
       </c>
       <c r="J28" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return an item but has lost the original packaging, which falls under the 'OTHERS' category as it does not fit the standard return processes.</t>
+          <t>The user wants to return an order but has lost the original packaging, which falls outside the standard return process and is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="K28" s="11" t="inlineStr">
@@ -1968,32 +1968,32 @@
       </c>
       <c r="E29" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F29" s="11" t="inlineStr">
         <is>
-          <t>We currently do not have the Getty Table Lamp in stock at any of our stores in Austin.</t>
+          <t>I can help you find the nearest store that has the Getty Table Lamp in stock.</t>
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the Getty Table Lamp at stores near their location, which falls under the intent of checking product availability.</t>
+          <t>The user is inquiring about the availability of the Getty Table Lamp at stores near their location, which falls under the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="I29" s="11" t="inlineStr">
         <is>
-          <t>I can help you find a store near you that has the Getty Table Lamp available.</t>
+          <t>I can help you find a store near Austin that has the Getty Table Lamp available.</t>
         </is>
       </c>
       <c r="J29" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the product in a specific location (Austin), which does not fit into the defined sub-intents related to stock status, alternative products, product queries, discounts, or shipping timelines.</t>
+          <t>The user is inquiring about the availability of a product in a specific location (Austin), which falls under the 'OTHERS' category as it does not directly ask about stock status or alternative products.</t>
         </is>
       </c>
       <c r="K29" s="11" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="E30" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.7</t>
         </is>
       </c>
       <c r="F30" s="11" t="inlineStr">
         <is>
-          <t>I can help with that! However, I need to clarify if you want to add order #289990 to the existing order #294978 for shipping together. Please confirm.</t>
+          <t>I can help with that! However, I need to clarify that I cannot add orders together for shipping. You will need to place a new order for the additional items.</t>
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>The user's request to add an order to another does not fit neatly into any of the specified intents, as it involves modifying an existing order rather than inquiring about order status, product availability, damages, or returns.</t>
+          <t>The user's request to add an order to an existing one does not fit into any specific intent category related to order status, product availability, damages, returns, or trade applications. It is more of a general inquiry about order processing, which falls under 'OTHERS'.</t>
         </is>
       </c>
       <c r="H30" s="11" t="n"/>
@@ -2076,17 +2076,17 @@
       </c>
       <c r="E31" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.7</t>
         </is>
       </c>
       <c r="F31" s="11" t="inlineStr">
         <is>
-          <t>We offer a variety of gift packing options. Please let me know if you would like to see a list of available options or if you have a specific request in mind.</t>
+          <t>We offer a variety of gift packing options. Please let me know if you would like to see the available options or if you have any specific preferences in mind.</t>
         </is>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is about the available gift packing options rather than a specific order status, product availability, or any other defined intent. Therefore, it falls under 'OTHERS' as it does not match the specific intents listed.</t>
+          <t>The user's inquiry is about the available gift packing options rather than the status of an order or product availability, which does not fit into the defined intents. Therefore, it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H31" s="11" t="n"/>
@@ -2124,32 +2124,32 @@
       </c>
       <c r="E32" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>RETURNS - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F32" s="11" t="inlineStr">
         <is>
-          <t>Hi Ellen, I understand that you would prefer a refund instead of a replacement for the damaged mirror. I will initiate the refund process for you and ensure that the amount is credited back to your card as soon as possible. Please allow a few business days for the transaction to reflect on your account. If you have any further questions or need assistance with anything else, feel free to reach out. Thank you for your patience.</t>
+          <t>Hi Ellen, I understand that you would like to proceed with a refund instead of a replacement for the damaged mirror. I will initiate the refund process back to your credit card right away. Please allow a few business days for the transaction to reflect on your account. If you have any further questions or need assistance, feel free to reach out. Thank you for your patience.</t>
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>The user's request for a refund instead of a replacement does not fit neatly into the defined intents of 'RETURNS' or 'DAMAGES' as it is more about the user's decision to not pursue a replacement and instead seek a refund. Therefore, it is classified as 'OTHERS' due to the nature of the request and the context provided.</t>
+          <t>The user is requesting a refund for a damaged product instead of a replacement, which falls under the intent of handling returns.</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>REFUND - 0.95</t>
         </is>
       </c>
       <c r="I32" s="11" t="inlineStr">
         <is>
-          <t>Hi Ellen, I understand that you would prefer a refund instead of a replacement for the damaged mirror. I will initiate the refund process back to your credit card as requested. Please allow a few business days for the transaction to reflect on your account. If you have any further questions or need assistance, feel free to reach out. Thank you for your patience.</t>
+          <t>Hi Ellen, I'm sorry to hear that you would like a refund instead of a replacement. I can assist you with processing that refund back to your credit card. Please allow a few business days for the transaction to reflect on your account. If you have any further questions or need assistance, feel free to reach out. Thank you for your understanding.</t>
         </is>
       </c>
       <c r="J32" s="11" t="inlineStr">
         <is>
-          <t>The user's last message explicitly requests a refund instead of a replacement for the damaged mirror, which aligns with the REFUND sub-intent.</t>
+          <t>The user explicitly requested a refund instead of a replacement for the damaged mirror, which directly aligns with the REFUND sub intent.</t>
         </is>
       </c>
       <c r="K32" s="11" t="inlineStr">
@@ -2186,22 +2186,22 @@
       </c>
       <c r="E33" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F33" s="11" t="inlineStr">
         <is>
-          <t>Hi Marisa, Thank you for your update. I appreciate you letting us know that the two boxes for the first table were dropped at UPS. We will process your return as soon as we receive the items back. If you have any further questions or need assistance, please don’t hesitate to reach out. Best regards, Cassy</t>
+          <t>Hi Marisa, Thank you for reaching out regarding your order. I’m pleased to inform you that both Iron &amp; Marble Side Tables are eligible for return within the return period. Please box up your items in the original packaging, print and attach the UPS return label included in this email, and bring your package to a nearby UPS store. They will handle the rest! Please note, if the products are not sent back in their original packaging and damage occurs, you may incur additional costs. For your convenience, I have included the UPS return label. Upon receipt and inspection of the products, we will issue a refund to your original payment method. Once the refund is processed, please allow 3-5 business days for any credits to be applied back to your account. Note that a restocking fee of 10% will be deducted from the refunded amount, as well as the shipping cost. Please visit the Returns Policy section of our website for more information. If you have any further questions or need assistance, please don’t hesitate to reach out. Best regards, Cassy</t>
         </is>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>The user's last message confirms the return of the product, which aligns with the intent of handling customer requests for returning products that are delivered and not damaged.</t>
+          <t>The user's last message confirms the return of the product, which aligns with the bot's response about the return process and refund details, indicating the intent is related to returns.</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>RETURNS_PROCESSING - 0.95, REFUND - 0.85</t>
         </is>
       </c>
       <c r="I33" s="11" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="J33" s="11" t="inlineStr">
         <is>
-          <t>The user has confirmed that they have returned the item and requested a refund for both items, indicating a clear intent to receive a refund.</t>
+          <t>The user's last message indicates that they have already initiated the return process by dropping off the items at UPS, which aligns with the intent of processing a return. Additionally, the bot's response includes information about the return process and mentions issuing a refund, which supports both the RETURNS_PROCESSING and REFUND intents.</t>
         </is>
       </c>
       <c r="K33" s="11" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E34" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F34" s="11" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="E35" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F35" s="11" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about the process for leaving feedback does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question that the bot is not programmed to handle.</t>
+          <t>The user's inquiry about the process for leaving feedback does not fall under any specific intent related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question that the bot is not programmed to handle.</t>
         </is>
       </c>
       <c r="H35" s="11" t="n"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="E36" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F36" s="11" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t>The user's request about a login issue does not fall under any of the specified intents, and the bot's response indicates that it cannot assist with this type of inquiry, classifying it as 'OTHERS'.</t>
+          <t>The user's last message is a request for assistance with a login issue, which does not fall under any of the specified intents. Therefore, it is classified as 'OTHERS' since it is outside the scope of the defined intents.</t>
         </is>
       </c>
       <c r="H36" s="11" t="n"/>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="E37" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F37" s="11" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about available payment options does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. It is a general question that does not inquire about a specific product or order status, thus classified as 'OTHERS'.</t>
+          <t>The user's inquiry about available payment options does not fall under any specific intent related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question that the bot is not programmed to handle.</t>
         </is>
       </c>
       <c r="H37" s="11" t="n"/>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="E38" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F38" s="11" t="inlineStr">
         <is>
-          <t>Hi, I can help you with the exchange process. Please provide the details of the item you wish to exchange and the reason for the exchange.</t>
+          <t>Hi, This is a question type the AI bot is not currently programmed to support.</t>
         </is>
       </c>
       <c r="G38" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about exchanging an item, which falls under the category of returns as it involves the process of returning a product for a different one.</t>
+          <t>The user's inquiry about exchanging an item does not fit into the defined intents of ORDER_STATUS, PRODUCT_AVAILABILITY, DAMAGES, RETURNS, or TRADE_APPLICATION. Since the bot's response indicates it cannot handle this type of question, it falls under the 'OTHERS' category.</t>
         </is>
       </c>
       <c r="H38" s="11" t="inlineStr">
         <is>
-          <t>QUERIES</t>
+          <t>QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I38" s="11" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="J38" s="11" t="inlineStr">
         <is>
-          <t>The user is asking about exchanging an item, which does not fall under the specific return processes or policies. Instead, it is a general inquiry about the exchange process, thus classified as QUERIES.</t>
+          <t>The user is asking about exchanging an item, which does not fall under the specific return processes or policies. The bot's response indicates it cannot support this type of inquiry, aligning with the QUERIES intent.</t>
         </is>
       </c>
       <c r="K38" s="11" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E39" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F39" s="11" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="G39" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about how to track their orders, which relates to the status of their order. This falls under the ORDER_STATUS intent as it involves tracking information and order status.</t>
+          <t>The user is inquiring about tracking their orders, which relates to the status of their order. Therefore, the intent is classified as ORDER_STATUS.</t>
         </is>
       </c>
       <c r="H39" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I39" s="11" t="inlineStr">
         <is>
-          <t>Hi, This is a question type the AI bot is not currently programmed to support.</t>
+          <t>Hi , This is a question type the AI bot is not currently programmed to support.</t>
         </is>
       </c>
       <c r="J39" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about tracking their orders, which falls under the category of shipping updates as it relates to obtaining information about the status of an order that has already been placed.</t>
+          <t>The user is inquiring about how to track their orders, which falls under the category of shipping updates as it relates to tracking information for an order that has already been placed.</t>
         </is>
       </c>
       <c r="K39" s="11" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="E40" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F40" s="11" t="inlineStr">
         <is>
-          <t>Hi, I can help you with the return process. Please provide the order number and the item you wish to return, and I will guide you through the steps.</t>
+          <t>Hi, This is a question type the AI bot is not currently programmed to support.</t>
         </is>
       </c>
       <c r="G40" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the process to return an item, which directly aligns with the RETURNS intent.</t>
+          <t>The user is inquiring about the process to return an item, which falls under the RETURNS intent as it involves a request for returning a product.</t>
         </is>
       </c>
       <c r="H40" s="11" t="inlineStr">
         <is>
-          <t>QUERIES</t>
+          <t>QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I40" s="11" t="inlineStr">
         <is>
-          <t>Hi, This is a question type the AI bot is not currently programmed to support.</t>
+          <t>Hi , This is a question type the AI bot is not currently programmed to support.</t>
         </is>
       </c>
       <c r="J40" s="11" t="inlineStr">
         <is>
-          <t>The user is asking a general question about how to return an item without explicitly initiating a return process or requesting a return label, which falls under the QUERIES sub-intent.</t>
+          <t>The user is asking a general question about how to return an item without explicitly stating a desire to initiate a return process, which aligns with the QUERIES intent.</t>
         </is>
       </c>
       <c r="K40" s="11" t="inlineStr">
@@ -2618,32 +2618,32 @@
       </c>
       <c r="E41" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F41" s="11" t="inlineStr">
         <is>
-          <t>Hi, our return policy allows you to return items within 30 days of receipt for a full refund, provided they are in original condition. If you have any specific items in mind, please let me know!</t>
+          <t>Hi, This is a question type the AI bot is not currently programmed to support.</t>
         </is>
       </c>
       <c r="G41" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the return policy, which directly relates to the intent of returning products. This aligns with the RETURNS intent as it involves understanding the conditions under which a return can be made.</t>
+          <t>The user is inquiring about the return policy, which directly relates to the intent of RETURNS as it involves understanding the conditions under which they can return a product.</t>
         </is>
       </c>
       <c r="H41" s="11" t="inlineStr">
         <is>
-          <t>RETURN_POLICY</t>
+          <t>RETURN_POLICY - 0.95, QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I41" s="11" t="inlineStr">
         <is>
-          <t>Hi, I can provide information about our return policy. Please let me know what specific details you would like to know.</t>
+          <t>Hi, This is a question type the AI bot is not currently programmed to support.</t>
         </is>
       </c>
       <c r="J41" s="11" t="inlineStr">
         <is>
-          <t>The user is asking about the return policy, which falls under the category of inquiries about the terms, conditions, or details of the return policy.</t>
+          <t>The user is asking about the return policy, which falls under the RETURN_POLICY sub intent. The bot's response indicates it is not programmed to support this type of inquiry, but it still relates to the user's question about the return policy.</t>
         </is>
       </c>
       <c r="K41" s="11" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="E42" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="F42" s="11" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E43" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F43" s="11" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="E44" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="F44" s="11" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G44" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about a referral program does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's inquiry about a referral program does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question that the bot is not programmed to handle.</t>
         </is>
       </c>
       <c r="H44" s="11" t="n"/>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E45" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F45" s="11" t="inlineStr">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="G45" s="11" t="inlineStr">
         <is>
-          <t>The user's message does not inquire about a specific product, order status, or any of the other defined intents. It expresses a desire to provide feedback, which falls outside the scope of the specified intents.</t>
+          <t>The user's message does not inquire about a specific product, order status, or any of the defined intents. It expresses a desire to provide feedback, which falls outside the scope of the available intents, thus classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H45" s="11" t="n"/>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="E46" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F46" s="11" t="inlineStr">
@@ -2880,7 +2880,7 @@
       </c>
       <c r="G46" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about installation services does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question that the bot is not programmed to handle.</t>
+          <t>The user's inquiry about installation services does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is outside the scope of the defined intents.</t>
         </is>
       </c>
       <c r="H46" s="11" t="n"/>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E47" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="F47" s="11" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G47" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about the company's mission does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. It is a general question that does not seek specific information about an order or product availability, thus classified as 'OTHERS'.</t>
+          <t>The user's inquiry about the company's mission does not fall under any specific intent related to orders, products, damages, returns, or trade applications. It is a general question that the bot is not programmed to handle, thus classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H47" s="11" t="n"/>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E48" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="F48" s="11" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="E49" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F49" s="11" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="G49" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about store hours does not fall under any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question not related to a specific product or order.</t>
+          <t>The user's inquiry about store hours does not fall under any specific intent related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it is a general question outside the defined intents.</t>
         </is>
       </c>
       <c r="H49" s="11" t="n"/>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E50" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F50" s="11" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G50" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about changing the shipping address does not fall under any of the specified intents, as it is not about order status, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's inquiry about changing the shipping address does not fall under any specific intent related to orders, products, damages, returns, or trade applications. It is a general question that the bot is not programmed to handle, thus classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H50" s="11" t="n"/>
@@ -3110,17 +3110,17 @@
       </c>
       <c r="E51" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F51" s="11" t="inlineStr">
         <is>
-          <t>Hi, thank you for your inquiry. You can find our privacy policy on our website under the 'Privacy Policy' section. If you have any specific questions, feel free to ask! Best regards, Sophia</t>
+          <t>Hi, you can find our privacy policy on our website under the 'Privacy Policy' section. If you have any specific questions, feel free to ask! Best regards, Sophia</t>
         </is>
       </c>
       <c r="G51" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about the privacy policy does not fall under any of the specific intents related to orders, products, damages, returns, or trade applications. It is a general question that does not inquire about a specific product or order, thus classified as 'OTHERS'.</t>
+          <t>The user's inquiry about the privacy policy does not fall under any specific intent related to orders, products, damages, returns, or trade applications. It is a general question, thus classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H51" s="11" t="n"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E52" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F52" s="11" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="G52" s="11" t="inlineStr">
         <is>
-          <t>The user's request for an invoice does not fall under any of the specified intents, as it does not inquire about order status, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's request for an invoice does not fall under any specific intent related to order status, product availability, damages, returns, or trade applications. It is a general inquiry that the bot is not programmed to handle, thus classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H52" s="11" t="n"/>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E53" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F53" s="11" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="G53" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about leaving a review does not fall under any of the specified intents, and the bot's response indicates that it cannot assist with this type of question.</t>
+          <t>The user's inquiry about leaving a review does not fit into any of the specified intents related to orders, products, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it falls outside the scope of the defined intents.</t>
         </is>
       </c>
       <c r="H53" s="11" t="n"/>
@@ -3254,17 +3254,17 @@
       </c>
       <c r="E54" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F54" s="11" t="inlineStr">
         <is>
-          <t>Hi, we have a variety of products on sale. Please visit our website to see the latest offers.</t>
+          <t>Hi, we have a variety of products on sale. Please visit our website for the latest offers.</t>
         </is>
       </c>
       <c r="G54" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about products on sale does not fit into any specific intent category such as order status, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's inquiry about products on sale does not fit into any specific intent category related to orders, product availability, damages, returns, or trade applications. It is a general inquiry about sales, which is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H54" s="11" t="n"/>
@@ -3302,32 +3302,32 @@
       </c>
       <c r="E55" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F55" s="11" t="inlineStr">
         <is>
-          <t>Hi, I'm sorry to hear that your rug arrived damaged. Please provide me with your order details, and I will assist you with the compensation options available. Thank you.</t>
+          <t>Hi, I'm sorry to hear that your rug arrived damaged. Please provide me with your order details, and I will assist you with the compensation options. Best regards, Sophia</t>
         </is>
       </c>
       <c r="G55" s="11" t="inlineStr">
         <is>
-          <t>The user's message specifically mentions that the rug arrived damaged and inquires about compensation options, which directly aligns with the DAMAGES intent.</t>
+          <t>The user's message explicitly mentions that the rug arrived damaged and inquires about compensation options, which directly aligns with the DAMAGES intent.</t>
         </is>
       </c>
       <c r="H55" s="11" t="inlineStr">
         <is>
-          <t>CLAIMS_AND_REFUND</t>
+          <t>CLAIMS_AND_REFUND - 0.85, DAMAGED_DURING_SHIPPING - 0.75</t>
         </is>
       </c>
       <c r="I55" s="11" t="inlineStr">
         <is>
-          <t>Hi, I'm sorry to hear that your rug arrived damaged. We can assist you with compensation options. Please provide any details or photos of the damage, and we'll guide you through the process. Thank you.</t>
+          <t>Hi, I'm sorry to hear that your rug arrived damaged. We can assist you with compensation options. Please provide more details about the damage so we can help you further.</t>
         </is>
       </c>
       <c r="J55" s="11" t="inlineStr">
         <is>
-          <t>The user is reporting that their rug arrived damaged and is inquiring about compensation options, which aligns with the CLAIMS_AND_REFUND sub-intent.</t>
+          <t>The user reported that their rug arrived damaged and is inquiring about compensation options, which aligns with the CLAIMS_AND_REFUND intent. Additionally, it also relates to DAMAGED_DURING_SHIPPING since the damage occurred during shipping.</t>
         </is>
       </c>
       <c r="K55" s="11" t="inlineStr">
@@ -3362,12 +3362,12 @@
       </c>
       <c r="E56" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F56" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your patience, Sandy. I apologize for the delay in response. I will process your refund of $2,224.53 for the damaged item that was refused at delivery. You should see the refund reflected on your Discover Card shortly. If you have any further questions or need assistance, please let me know.</t>
+          <t>We apologize for the inconvenience caused by the damaged item. We will process your refund of $2,224.53 as requested. Please allow a few business days for the transaction to reflect on your account.</t>
         </is>
       </c>
       <c r="G56" s="11" t="inlineStr">
@@ -3377,17 +3377,17 @@
       </c>
       <c r="H56" s="11" t="inlineStr">
         <is>
-          <t>CLAIMS_AND_REFUND</t>
+          <t>CLAIMS_AND_REFUND - 0.95, REFUSED_SHIPMENT - 0.85</t>
         </is>
       </c>
       <c r="I56" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your patience, Sandy. We understand your concern regarding the refund for the damaged item that was refused at delivery. We will process your refund of $2,224.53 as requested and confirm once it has been completed.</t>
+          <t>Thank you for your email, Sandy. I understand your concern regarding the refund for the item that was refused at delivery due to damage. I will process your request for a refund of $2,224.53 as soon as possible.</t>
         </is>
       </c>
       <c r="J56" s="11" t="inlineStr">
         <is>
-          <t>The user is explicitly requesting a refund for an item that was refused at delivery due to damage, which falls under the CLAIMS_AND_REFUND sub-intent.</t>
+          <t>The user is explicitly requesting a refund for an item that was refused at delivery due to damage, which aligns with both the CLAIMS_AND_REFUND and REFUSED_SHIPMENT intents.</t>
         </is>
       </c>
       <c r="K56" s="11" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="E57" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F57" s="11" t="inlineStr">
         <is>
-          <t>Hi Gail, I understand that you would like to cancel your order and request a refund. I will process your cancellation and initiate the refund as soon as possible. If you have any further questions or concerns, please let me know. Best regards, Sophia</t>
+          <t>Hi Gail, I understand that you would like to cancel your order and request a refund. I will process your cancellation and initiate the refund as soon as possible. If you have any further questions or concerns, please do not hesitate to contact us. Best regards, Sophia</t>
         </is>
       </c>
       <c r="G57" s="11" t="inlineStr">
         <is>
-          <t>The user's request to cancel the order and refund their money does not fit neatly into any of the specified intents, as it involves both cancellation and refund which are not explicitly covered by the defined intents. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's request to cancel the order and refund their money does not fit into the specific intents of ORDER_STATUS, PRODUCT_AVAILABILITY, DAMAGES, RETURNS, or TRADE_APPLICATION. It is a general request that does not inquire about a specific product or order status, thus classified as OTHERS.</t>
         </is>
       </c>
       <c r="H57" s="11" t="n"/>
@@ -3472,17 +3472,17 @@
       </c>
       <c r="E58" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.85, PRODUCT_AVAILABILITY - 0.75</t>
         </is>
       </c>
       <c r="F58" s="11" t="inlineStr">
         <is>
-          <t>Hi Jenny Reynolds, thank you for your inquiry about the Barley Twist dining table. We can certainly hold your order for you. Please let us know your preferred shipping date, and we will do our best to accommodate your request. Best Regards, Cassy</t>
+          <t>Hi Jenny Reynolds, thank you for your inquiry about the Barley Twist dining table. We can certainly hold the item for you until your house renovations are complete. Please let us know your preferred shipping date, and we will do our best to accommodate your request. Best Regards, Cassy</t>
         </is>
       </c>
       <c r="G58" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about shipping dates for the Barley Twist dining table and whether it can be held until they are ready for delivery, which relates to the status of their order.</t>
+          <t>The user is inquiring about shipping dates for a specific product they are interested in purchasing, which falls under the category of checking the status of an order related to shipping arrangements.</t>
         </is>
       </c>
       <c r="H58" s="11" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="I58" s="11" t="inlineStr">
         <is>
-          <t>Hi Jenny Reynolds, Thank you for your inquiry about the barley twist dining table. We can certainly hold your order until you're ready for shipping. Please let us know your preferred shipping date once your renovation is complete. Best Regards, Cassy</t>
+          <t>Hi Jenny Reynolds, Thank you for your inquiry about the barley twist dining table. We can certainly hold the item for you until you're ready for shipping. Please let us know your preferred shipping date once your renovation is complete. Best Regards, Cassy</t>
         </is>
       </c>
       <c r="J58" s="11" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="E59" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95, RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F59" s="11" t="inlineStr">
@@ -3542,22 +3542,22 @@
       </c>
       <c r="G59" s="11" t="inlineStr">
         <is>
-          <t>The user is reporting a damaged product and has already repacked it for return, which aligns with the intent of handling product damage during shipping.</t>
+          <t>The user is reporting a damaged product and has already taken steps to return it, which aligns with the intent of handling damages during shipping.</t>
         </is>
       </c>
       <c r="H59" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.95, REPLACEMENT_REQUEST - 0.90</t>
         </is>
       </c>
       <c r="I59" s="11" t="inlineStr">
         <is>
-          <t>Hi Michelle, I'm sorry to hear that your order has arrived with issues. While we strive to ensure every item is delivered in perfect condition, sometimes damages can occur during shipment. To assist you further, could you please provide us with the following photos? This will help us address the situation more effectively: - A photo of the damaged item. - A photo showing the damaged merchandise inside the original box, with all of the original cushioning (this should show the placement of the merchandise and packaging inside the box). - A close-up photo of the shipping label with the tracking number (please zoom in enough to read the tracking number). - Photos that show the box itself, especially if there was any damage to the box. Once we receive these images, we will be able to offer you options, including a replacement or a refund. In the meantime, if you have any other questions or need further assistance, please don't hesitate to reach out.</t>
+          <t>Hi Pavani, My name is Sophia with Wisteria's Returns &amp; Damages Department. I received notice that you have refused your order due to damage during shipping. I wanted to let you know that our Damages Department has been notified and will be reaching out to you shortly with specific instructions on how to proceed. Best Regards, Sophia</t>
         </is>
       </c>
       <c r="J59" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return a damaged item, which indicates a return request due to damage during shipping.</t>
+          <t>The user reported that the mirror was broken and mentioned they have repacked it to send back, indicating a return request due to damage. The bot's response acknowledges the refusal of the shipment due to damage, which aligns with both the DAMAGED_RETURN_REQUEST and REPLACEMENT_REQUEST intents.</t>
         </is>
       </c>
       <c r="K59" s="11" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="E60" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.9, OTHERS - 0.1</t>
         </is>
       </c>
       <c r="F60" s="11" t="inlineStr">
@@ -3607,17 +3607,17 @@
       </c>
       <c r="H60" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I60" s="11" t="inlineStr">
         <is>
-          <t>Hi Donna, We wanted to give you an update on your order #296723. Our manufacturer has 1 in stock and the now the estimated shipping date for the other Everly Pendant will be January 2, 2025. Would you like us to ship the 1 now, or wait for them to ship together? Please let me know so we can take care of this for you. Sincerely,</t>
+          <t>Hi Donna, We wanted to give you an update on your order #296723. Our manufacturer has 1 in stock and the now the estimated shipping date for the otherEverly Pendant will be January 2, 2025. Would you like us to ship the 1 now, or wait for them to ship together? Please let me know so we can take care of this for you. Sincerely,</t>
         </is>
       </c>
       <c r="J60" s="11" t="inlineStr">
         <is>
-          <t>The user's last message expresses urgency about needing the items before December, indicating a concern about the shipping timeline. The bot's likely response provides an update on the shipping status and options regarding the order, which aligns with the SHIPPING_UPDATES sub-intent.</t>
+          <t>The user's last message expresses urgency about needing the items before December, indicating a concern about the shipping timeline. The bot's likely response provides an update on the order status and estimated shipping date, which aligns with the SHIPPING_UPDATES intent.</t>
         </is>
       </c>
       <c r="K60" s="11" t="inlineStr">
@@ -3652,32 +3652,32 @@
       </c>
       <c r="E61" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.85, DAMAGES - 0.75</t>
         </is>
       </c>
       <c r="F61" s="11" t="inlineStr">
         <is>
-          <t>Hi Ellen, I understand that you would like to process a refund instead of receiving another replacement for the damaged mirror. I can assist you with that. Please allow me a moment to initiate the refund process back to your credit card. If you have any further questions or need assistance, feel free to reach out. Thank you for your patience.</t>
+          <t>Hi Ellen, I understand that you would like to process a refund for the damaged mirror instead of receiving another replacement. I can assist you with that. Please allow me a moment to initiate the refund process back to your credit card. If you have any further questions or need assistance, feel free to reach out. Thank you for your patience.</t>
         </is>
       </c>
       <c r="G61" s="11" t="inlineStr">
         <is>
-          <t>The user's request is specifically about obtaining a refund for a damaged product instead of receiving another replacement, which falls under the intent of handling returns.</t>
+          <t>The user is requesting a refund for a damaged product instead of a replacement, which falls under the intent of handling returns.</t>
         </is>
       </c>
       <c r="H61" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>CLAIMS_AND_REFUND - 0.95, REPLACEMENT_REQUEST - 0.85</t>
         </is>
       </c>
       <c r="I61" s="11" t="inlineStr">
         <is>
-          <t>Hi Ellen, I understand that you would like to process a refund for the damaged mirror instead of receiving another replacement. I will initiate the refund process back to your credit card right away. Please allow a few business days for the transaction to reflect on your account. If you have any further questions or need assistance, feel free to reach out. Thank you for your understanding.</t>
+          <t>Hi Ellen, I'm so sorry to hear that your order has issues with missing attachments. While we strive to ensure all details are provided, sometimes things can slip through the cracks. To assist you better, could you please provide any specific details about the damaged item? If you have photos of the damage, that would be incredibly helpful as well. This will allow us to address the situation promptly and offer you the best possible solution, whether that be a replacement or a refund. In the meantime, please don't hesitate to reach out if there is anything else I can help with.</t>
         </is>
       </c>
       <c r="J61" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requested a refund instead of a replacement for the damaged mirror, which falls under the REFUND sub-intent.</t>
+          <t>The user is requesting a refund instead of a replacement for the damaged mirror, which aligns with the CLAIMS_AND_REFUND intent. The bot's response addresses both the possibility of a refund and a replacement, indicating it is prepared to assist with either option.</t>
         </is>
       </c>
       <c r="K61" s="11" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="E62" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F62" s="11" t="inlineStr">
@@ -3724,12 +3724,12 @@
       </c>
       <c r="G62" s="11" t="inlineStr">
         <is>
-          <t>The user's message indicates a request to return an item that does not meet their expectations, which aligns with the intent of 'RETURNS'. The bot's likely response addresses the return process and provides a return label, confirming the intent.</t>
+          <t>The user's message indicates a request to return an item that does not meet their expectations, which aligns with the intent of 'RETURNS'. The bot's response provides information on how to return the item, confirming the intent.</t>
         </is>
       </c>
       <c r="H62" s="11" t="inlineStr">
         <is>
-          <t>RETURN_POLICY</t>
+          <t>RETURNS_PROCESSING - 0.95, RETURN_POLICY - 0.85</t>
         </is>
       </c>
       <c r="I62" s="11" t="inlineStr">
@@ -3739,7 +3739,7 @@
       </c>
       <c r="J62" s="11" t="inlineStr">
         <is>
-          <t>The user's last message expresses dissatisfaction with the product received and implies a desire to return it, which aligns with the return policy context. The bot's response includes information about the return process and policy details, indicating that the sub intent is related to the return policy.</t>
+          <t>The user's email requests a return label and mentions dissatisfaction with the product, indicating a need to initiate the return process. The bot's response provides a return label and details about the return process, aligning with the RETURNS_PROCESSING intent. Additionally, the response includes information about the return policy, which also relates to the RETURN_POLICY intent.</t>
         </is>
       </c>
       <c r="K62" s="11" t="inlineStr">
@@ -3774,42 +3774,42 @@
       </c>
       <c r="E63" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95, OTHERS - 0.60</t>
         </is>
       </c>
       <c r="F63" s="11" t="inlineStr">
         <is>
-          <t>Thank you for the photo. We will process your damage report and get back to you shortly.</t>
+          <t>Hi, Can you please provide a valid order number so that we can assist you with the damage report? Best regards, Sophia</t>
         </is>
       </c>
       <c r="G63" s="11" t="inlineStr">
         <is>
-          <t>The user mentioned slight damage to the cabinet, specifically a bent front leg, which falls under the category of product damage during shipping. The bot's likely response addresses the damage report process.</t>
+          <t>The user's last message indicates that there is a slight damage to the cabinet received, which aligns with the intent of reporting product damage during shipping. The bot's response is seeking further information to assist with the damage report, confirming the intent of DAMAGES.</t>
         </is>
       </c>
       <c r="H63" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_DURING_SHIPPING</t>
+          <t>DAMAGED_DURING_SHIPPING - 0.85, DAMAGED_RETURN_REQUEST - 0.75</t>
         </is>
       </c>
       <c r="I63" s="11" t="inlineStr">
         <is>
-          <t>Hi Tamara, thank you for the update and the photo. I'm sorry to hear about the damage to the cabinet. We can assist you further with this issue. Please let us know how you would like to proceed.</t>
+          <t>Hi, Can you please provide a valid order number so that we can assist you with the damage report? Best regards, Sophia</t>
         </is>
       </c>
       <c r="J63" s="11" t="inlineStr">
         <is>
-          <t>The user reported slight damage to the cabinet upon arrival, which fits the criteria for 'DAMAGED_DURING_SHIPPING' as it indicates damage that occurred during the shipping process.</t>
+          <t>The user reported slight damage to the cabinet upon arrival, which indicates that the item was damaged during shipping. The bot's response is seeking further information to assist with the damage report, which aligns with both the DAMAGED_DURING_SHIPPING and DAMAGED_RETURN_REQUEST intents.</t>
         </is>
       </c>
       <c r="K63" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L63" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E64" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>ORDER_STATUS - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F64" s="11" t="inlineStr">
@@ -3844,12 +3844,24 @@
       </c>
       <c r="G64" s="11" t="inlineStr">
         <is>
-          <t>The user's last message does not inquire about the status of the order or provide a clear request related to the order's delivery. Instead, it seems to confirm a previous statement without asking for specific information, leading to the classification as 'OTHERS'.</t>
-        </is>
-      </c>
-      <c r="H64" s="11" t="n"/>
-      <c r="I64" s="11" t="n"/>
-      <c r="J64" s="11" t="n"/>
+          <t>The user's last message does not provide a clear inquiry about order status, product availability, damages, or returns. It seems to confirm a previous statement without asking for specific assistance, leading to the classification as 'OTHERS'.</t>
+        </is>
+      </c>
+      <c r="H64" s="11" t="inlineStr">
+        <is>
+          <t>ORDER_MODIFICATIONS - 0.85</t>
+        </is>
+      </c>
+      <c r="I64" s="11" t="inlineStr">
+        <is>
+          <t>Hi there, This is a question type the AI bot is not currently programmed to support. Best Regards</t>
+        </is>
+      </c>
+      <c r="J64" s="11" t="inlineStr">
+        <is>
+          <t>The user is requesting to change the shipping address for their order, which falls under the ORDER_MODIFICATIONS sub intent.</t>
+        </is>
+      </c>
       <c r="K64" s="11" t="inlineStr">
         <is>
           <t>OTHERS</t>
@@ -3882,12 +3894,12 @@
       </c>
       <c r="E65" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.85</t>
         </is>
       </c>
       <c r="F65" s="11" t="inlineStr">
         <is>
-          <t>Hi, Thank you for your inquiry! The item you are asking about is currently available. You can place your order anytime. If you need assistance with the ordering process, feel free to ask. Best regards, Sophia</t>
+          <t>Hi, Thank you for your inquiry! The item you are asking about is currently available. You can place your order at your convenience. If you have any further questions or need assistance, feel free to reach out. Best regards, Sophia</t>
         </is>
       </c>
       <c r="G65" s="11" t="inlineStr">
@@ -3897,17 +3909,17 @@
       </c>
       <c r="H65" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I65" s="11" t="inlineStr">
         <is>
-          <t>Hi, Thank you for your inquiry! Yes, the item is currently available for order. Please let us know if you would like to proceed with the order or if you have any other questions. Best regards, Sophia</t>
+          <t>Hi, Thank you for your inquiry. Yes, the item is currently available for order. Please let me know if you would like to proceed with the order or if you have any other questions.</t>
         </is>
       </c>
       <c r="J65" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of a product and expressing a desire to order it again, which aligns with the STOCK_STATUS sub-intent.</t>
+          <t>The user is inquiring about the availability of a product and expressing a desire to order it again, which aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K65" s="11" t="inlineStr">
@@ -3944,32 +3956,32 @@
       </c>
       <c r="E66" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.85</t>
         </is>
       </c>
       <c r="F66" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your interest in ordering the coffee table! I can help you with that. Could you please let me know which specific coffee table you are interested in? Once I have that information, I can check its availability for you.</t>
+          <t>Hi Sai Prakash Reddy, thank you for your interest in ordering the coffee table! I can help you with that. Could you please let me know which specific coffee table you are interested in? This will help me check its availability for you. Looking forward to your response!</t>
         </is>
       </c>
       <c r="G66" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the possibility of ordering a coffee table, which directly relates to the availability of the product.</t>
+          <t>The user's inquiry about ordering a coffee table indicates a desire to check the availability of that product, which aligns with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H66" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.85</t>
         </is>
       </c>
       <c r="I66" s="11" t="inlineStr">
         <is>
-          <t>Hi Sai Prakash Reddy, thank you for your inquiry about ordering the coffee table. I will check the availability of the coffee table for you and get back to you shortly.</t>
+          <t>Hi Sai Prakash Reddy, I'm glad you're interested in ordering the coffee table! Let me check the availability for you. Please hold on for a moment.</t>
         </is>
       </c>
       <c r="J66" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the possibility of ordering a coffee table, which indicates a desire to know if the product is currently available for purchase.</t>
+          <t>The user is inquiring about the possibility of ordering a coffee table, which indicates a desire to know if the product is currently available for purchase. This aligns with the STOCK_STATUS sub intent, as it involves checking the availability of a product.</t>
         </is>
       </c>
       <c r="K66" s="11" t="inlineStr">
@@ -4005,7 +4017,7 @@
       </c>
       <c r="E67" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F67" s="11" t="inlineStr">
@@ -4020,17 +4032,17 @@
       </c>
       <c r="H67" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I67" s="11" t="inlineStr">
         <is>
-          <t>I can check the availability of the coffee table for you.</t>
+          <t>Yes, you can order a coffee table in this climate. Please let me know if you need assistance with the order.</t>
         </is>
       </c>
       <c r="J67" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the possibility of ordering a coffee table, which implies a need to know if the product is currently available for purchase.</t>
+          <t>The user is inquiring about the ability to order a coffee table, which implies a need to know if the product is available for purchase, thus falling under the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K67" s="11" t="inlineStr">
@@ -4065,7 +4077,7 @@
       </c>
       <c r="E68" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.85</t>
         </is>
       </c>
       <c r="F68" s="11" t="inlineStr">
@@ -4075,22 +4087,22 @@
       </c>
       <c r="G68" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of an item for reordering, which directly relates to the stock status of the product.</t>
+          <t>The user is inquiring about the availability of an item for reordering, which directly relates to the intent of checking product availability.</t>
         </is>
       </c>
       <c r="H68" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95, OTHERS - 0.05</t>
         </is>
       </c>
       <c r="I68" s="11" t="inlineStr">
         <is>
-          <t>The item is currently available for reordering. However, please note that stock levels may vary, so it's best to place your order soon to ensure availability.</t>
+          <t>The item is currently available for reordering. Please let me know if you would like to proceed with the order.</t>
         </is>
       </c>
       <c r="J68" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of an item for reordering and whether it is limited in stock, which directly relates to the stock status of the product.</t>
+          <t>The user is inquiring about the availability of an item for reordering, which directly relates to checking if the product is currently in stock or limited stock, thus falling under the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K68" s="11" t="inlineStr">
@@ -4125,32 +4137,32 @@
       </c>
       <c r="E69" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F69" s="11" t="inlineStr">
         <is>
-          <t>You will need to cover the return shipping costs. Please let us know if you need further assistance.</t>
+          <t>You will need to pay for return shipping unless otherwise specified in our return policy. Please check the policy for more details.</t>
         </is>
       </c>
       <c r="G69" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the return process for an item that is not damaged but does not suit their needs, which falls under the RETURNS intent.</t>
+          <t>The user's inquiry is about returning an item that is not damaged but does not suit their needs, which falls under the RETURNS intent as they are seeking information on the return process and shipping costs.</t>
         </is>
       </c>
       <c r="H69" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_CHARGES_ADJUSTMENT</t>
+          <t>RETURNS_PROCESSING - 0.95, QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I69" s="11" t="inlineStr">
         <is>
-          <t>Regarding your question about return shipping, it depends on our return policy. I can check that for you.</t>
+          <t>Please provide your order number, and we’ll share the return instructions.</t>
         </is>
       </c>
       <c r="J69" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring specifically about the return shipping charges, which falls under the category of negotiating or asking for adjustments related to shipping costs.</t>
+          <t>The user is initiating a return process and asking about return shipping costs, which aligns with both RETURNS_PROCESSING and QUERIES intents.</t>
         </is>
       </c>
       <c r="K69" s="11" t="inlineStr">
@@ -4185,22 +4197,22 @@
       </c>
       <c r="E70" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F70" s="11" t="inlineStr">
         <is>
-          <t>Please follow the return instructions we will provide for your order #256789.</t>
+          <t>Please provide your order number, and we’ll share the return instructions.</t>
         </is>
       </c>
       <c r="G70" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return an item that is not damaged but does not suit their needs, which falls under the RETURNS intent.</t>
+          <t>The user is requesting to return an item that is not damaged but does not suit their needs, which falls under the RETURNS intent as they are seeking instructions on how to proceed with the return.</t>
         </is>
       </c>
       <c r="H70" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.95</t>
         </is>
       </c>
       <c r="I70" s="11" t="inlineStr">
@@ -4210,7 +4222,7 @@
       </c>
       <c r="J70" s="11" t="inlineStr">
         <is>
-          <t>The user has expressed a desire to return an item that does not suit their needs, which indicates they are initiating the return process. The bot's likely response is to request the order number to proceed with the return instructions.</t>
+          <t>The user has expressed a desire to return an item and is seeking guidance on how to proceed, which aligns with the RETURNS_PROCESSING intent.</t>
         </is>
       </c>
       <c r="K70" s="11" t="inlineStr">
@@ -4245,12 +4257,12 @@
       </c>
       <c r="E71" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F71" s="11" t="inlineStr">
         <is>
-          <t>Thank you for providing the correct order number. I will check the status of order #262626 and get back to you shortly.</t>
+          <t>Hi, the order number provided doesn’t match our format. Could you double-check the details?</t>
         </is>
       </c>
       <c r="G71" s="11" t="inlineStr">
@@ -4260,17 +4272,17 @@
       </c>
       <c r="H71" s="11" t="inlineStr">
         <is>
-          <t>ORDER_CONFIRMATION</t>
+          <t>ORDER_CONFIRMATION - 0.85, SHIPPING_UPDATES - 0.75</t>
         </is>
       </c>
       <c r="I71" s="11" t="inlineStr">
         <is>
-          <t>Hi, I can confirm that the order number #262626 is valid. Let me check the status of your order for you.</t>
+          <t>Hi, the order number provided doesn’t match our format. Could you double-check the details?</t>
         </is>
       </c>
       <c r="J71" s="11" t="inlineStr">
         <is>
-          <t>The user is asking for confirmation of the order number they provided, which indicates they are seeking to confirm the validity of their order.</t>
+          <t>The user is inquiring about the validity of their order number and the status of their order, which aligns with both confirming the order and seeking updates on shipping. The bot's response indicates a need for clarification on the order number, which is relevant to both ORDER_CONFIRMATION and SHIPPING_UPDATES.</t>
         </is>
       </c>
       <c r="K71" s="11" t="inlineStr">
@@ -4305,17 +4317,17 @@
       </c>
       <c r="E72" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F72" s="11" t="inlineStr">
         <is>
-          <t>Unfortunately, I cannot change the shipping address for an order that has already been placed. You may need to wait for the order to arrive and then initiate a return if necessary.</t>
+          <t>Unfortunately, I cannot update the shipping address for an order that has already been placed. Please contact customer service for further assistance.</t>
         </is>
       </c>
       <c r="G72" s="11" t="inlineStr">
         <is>
-          <t>The user's request to change the shipping address for an order that has already been placed does not fit into any specific intent category. It is a general inquiry about updating an address, which is not covered by the defined intents.</t>
+          <t>The user's request to change the shipping address for an order that has already been placed does not fall under any specific intent related to order status, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS' as it pertains to a general inquiry about updating order details.</t>
         </is>
       </c>
       <c r="H72" s="11" t="n"/>
@@ -4353,17 +4365,27 @@
       </c>
       <c r="E73" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.9</t>
         </is>
       </c>
       <c r="F73" s="11" t="inlineStr">
         <is>
-          <t>Thank you! I’ll watch for the tracking link.</t>
+          <t>Hi,
+Your order has been successfully placed.
+Order number: #295365
+Order Date: 7/15/2024
+Item Number: 118-111873
+Item Name: Guernsey Chest
+ESD: 11/23/2024
+We will provide a tracking link as soon as it is available.
+Is there anything else I can assist you with?
+Best regards,
+Sophia</t>
         </is>
       </c>
       <c r="G73" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses gratitude and acknowledges the previous communication, which aligns with casual conversation and friendly comments, thus classified as BANTER.</t>
+          <t>The user's last message expresses gratitude and acknowledges the information provided, which aligns with casual conversation and friendly interaction, thus classified as BANTER.</t>
         </is>
       </c>
       <c r="H73" s="11" t="n"/>
@@ -4401,7 +4423,7 @@
       </c>
       <c r="E74" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F74" s="11" t="inlineStr">
@@ -4411,7 +4433,7 @@
       </c>
       <c r="G74" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of a refund for a canceled order, which does not fit neatly into the defined intents. It involves a request for information about a refund rather than a direct inquiry about an order status or a return process.</t>
+          <t>The user's inquiry about the refund for a canceled order does not fit neatly into the defined intents of ORDER_STATUS, RETURNS, or any other specific category. It is more of a general inquiry about the refund process, which is why it is classified as OTHERS.</t>
         </is>
       </c>
       <c r="H74" s="11" t="inlineStr">
@@ -4457,32 +4479,32 @@
       </c>
       <c r="E75" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F75" s="11" t="inlineStr">
         <is>
-          <t>The Porto Inlay Coffee Table in gray is currently back in stock. You can place your order using the link you provided.</t>
+          <t>The Porto Inlay Coffee Table is currently back in stock. You can place your order using the link provided.</t>
         </is>
       </c>
       <c r="G75" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of a specific product (the Porto Inlay Coffee Table) that was previously sold out, which aligns with the PRODUCT_AVAILABILITY intent.</t>
+          <t>The user inquired about the availability of the Porto Inlay Coffee Table, specifically asking if it is back in stock. This aligns directly with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H75" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I75" s="11" t="inlineStr">
         <is>
-          <t>The Porto Inlay Coffee Table in gray is currently sold out. We will notify you when it is back in stock.</t>
+          <t>The Porto Inlay Coffee Table is currently sold out. We will notify you when it is back in stock.</t>
         </is>
       </c>
       <c r="J75" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring specifically about the availability of the Porto Inlay Coffee Table in gray, indicating a desire to know if it is back in stock, which aligns with the STOCK_STATUS sub intent.</t>
+          <t>The user is inquiring specifically about the availability of the Porto Inlay Coffee Table, indicating a desire to know if it is back in stock, which aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K75" s="11" t="inlineStr">
@@ -4517,7 +4539,7 @@
       </c>
       <c r="E76" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F76" s="11" t="inlineStr">
@@ -4527,7 +4549,7 @@
       </c>
       <c r="G76" s="11" t="inlineStr">
         <is>
-          <t>The user's message is promotional in nature and does not inquire about a specific product, order status, or any of the other defined intents. Therefore, it falls under the 'OTHERS' category.</t>
+          <t>The user's message is promotional in nature and does not inquire about a specific product or order, making it fall outside the defined intents. Therefore, it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H76" s="11" t="n"/>
@@ -4565,17 +4587,17 @@
       </c>
       <c r="E77" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F77" s="11" t="inlineStr">
         <is>
-          <t>we are not interested</t>
+          <t>we are not intrested</t>
         </is>
       </c>
       <c r="G77" s="11" t="inlineStr">
         <is>
-          <t>The user's email is a business proposal for cooperation, which does not fit into any specific intent category related to orders, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's message is a business proposal for cooperation, which does not fit into the specific intents related to orders, product availability, damages, returns, or trade applications. Therefore, it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H77" s="11" t="inlineStr">
@@ -4621,7 +4643,7 @@
       </c>
       <c r="E78" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F78" s="11" t="inlineStr">
@@ -4631,7 +4653,7 @@
       </c>
       <c r="G78" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is about the application of a trade discount, which does not fall under any specific intent category. It involves a general question about account functionality and discount application, making it best classified as 'OTHERS'.</t>
+          <t>The user's inquiry is about the application of a trade discount, which does not fit neatly into the defined intents. It does not specifically ask about an order status, product availability, damages, returns, or trade applications, hence it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H78" s="11" t="inlineStr">
@@ -4641,12 +4663,12 @@
       </c>
       <c r="I78" s="11" t="inlineStr">
         <is>
-          <t>It seems like your trade discount should apply automatically at checkout. If it's not being applied, there may be an issue with your account settings. Please check if your trade account is active and in good standing. If you still have trouble, let me know, and I can assist you further.</t>
+          <t>It looks like your trade discount should apply automatically in the cart. If it's not showing up, please ensure that you are logged into your trade account. If the issue persists, I recommend checking with our support team for further assistance.</t>
         </is>
       </c>
       <c r="J78" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about the application of their trade discount on retail prices, which falls under the category of discounts and pricing. They are seeking clarification on whether a code is needed or if the discount should apply automatically, indicating a focus on pricing benefits associated with their trade account.</t>
+          <t>The user's inquiry specifically addresses the application of a trade discount to retail prices, which falls under the category of discounts and pricing. They are seeking clarification on how the discount is applied, indicating a focus on pricing rather than account setup or program benefits.</t>
         </is>
       </c>
       <c r="K78" s="11" t="inlineStr">
@@ -4683,42 +4705,42 @@
       </c>
       <c r="E79" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F79" s="11" t="inlineStr">
         <is>
-          <t>Hi Cheri,Thank you for letting us know. I can assist you with the return process. Please provide me with your order details, and I will guide you through the next steps. Thank you,CassyWisteria Customer Care Team</t>
+          <t>Hi Cheri, Thank you for reaching out to Wisteria, my name is Cassy and I am happy to help. We have been having issues with the codes, and I have contacted my IT department to let them know. I apologize for the inconvenience. If you need, you may call in and I can assist you in placing your order with the discount. Our number is 888-296-8574. Thank you, Cassy Wisteria Customer Care Team</t>
         </is>
       </c>
       <c r="G79" s="11" t="inlineStr">
         <is>
-          <t>The user's last message indicates a decision to return items, which directly aligns with the intent of processing returns.</t>
+          <t>The user's last message indicates a decision to return the items instead of proceeding with the order, which aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H79" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.85, QUERIES - 0.75</t>
         </is>
       </c>
       <c r="I79" s="11" t="inlineStr">
         <is>
-          <t>Hi Cheri,Thank you for letting us know. I can assist you with the return process. Please provide me with your order number and the items you wish to return, and I will guide you through the steps. Thank you, Cassy Wisteria Customer Care Team</t>
+          <t>Hi Cheri, Thank you for reaching out to Wisteria. I can assist you with the return process. Please provide me with your order number and the items you wish to return, and I will guide you through the steps. Thank you, Cassy Wisteria Customer Care Team</t>
         </is>
       </c>
       <c r="J79" s="11" t="inlineStr">
         <is>
-          <t>The user has explicitly stated their intention to return the items, indicating a need to initiate the return process.</t>
+          <t>The user explicitly states their intention to return items, which aligns with the RETURNS_PROCESSING intent. Additionally, the request may also involve some clarification on how to proceed, which relates to the QUERIES intent.</t>
         </is>
       </c>
       <c r="K79" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L79" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -4743,22 +4765,34 @@
       </c>
       <c r="E80" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F80" s="11" t="inlineStr">
         <is>
-          <t>Unfortunately, I cannot assist with changing the shipping address for your order. Please contact customer service for further assistance.</t>
+          <t>Unfortunately, I cannot change the shipping address for an order that has already been placed. You may need to contact the shipping carrier directly for assistance.</t>
         </is>
       </c>
       <c r="G80" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about changing the shipping address does not fall under any specific intent related to order status, product availability, damages, returns, or trade applications. It is a request for assistance that is not clearly defined within the provided intents, thus classified as 'OTHERS'.</t>
-        </is>
-      </c>
-      <c r="H80" s="11" t="n"/>
-      <c r="I80" s="11" t="n"/>
-      <c r="J80" s="11" t="n"/>
+          <t>The user's inquiry about changing the shipping address does not fall under the specific intents of order status, product availability, damages, returns, or trade applications. It is more of a general inquiry about the order process, which is why it is classified as 'OTHERS'.</t>
+        </is>
+      </c>
+      <c r="H80" s="11" t="inlineStr">
+        <is>
+          <t>ORDER_MODIFICATIONS - 0.85</t>
+        </is>
+      </c>
+      <c r="I80" s="11" t="inlineStr">
+        <is>
+          <t>Yes, you can change your shipping address for order #295583. Please provide the new address you'd like to use.</t>
+        </is>
+      </c>
+      <c r="J80" s="11" t="inlineStr">
+        <is>
+          <t>The user's inquiry about changing the shipping address for their order indicates a request to modify the order details, which aligns with the ORDER_MODIFICATIONS sub intent.</t>
+        </is>
+      </c>
       <c r="K80" s="11" t="inlineStr">
         <is>
           <t>OTHERS</t>
@@ -4791,30 +4825,42 @@
       </c>
       <c r="E81" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>ORDER_STATUS - 0.9, OTHERS - 0.1</t>
         </is>
       </c>
       <c r="F81" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your inquiry! Unfortunately, I cannot assist with discount applications at this time. Please check our website for any ongoing promotions.</t>
+          <t>Thank you for your inquiry! Unfortunately, I cannot apply discounts to your next purchase directly. Please check our website for any ongoing promotions or discounts.</t>
         </is>
       </c>
       <c r="G81" s="11" t="inlineStr">
         <is>
-          <t>The user's message does not specifically inquire about a product or order status, and it relates to applying a discount rather than a clear intent that fits the defined categories.</t>
-        </is>
-      </c>
-      <c r="H81" s="11" t="n"/>
-      <c r="I81" s="11" t="n"/>
-      <c r="J81" s="11" t="n"/>
+          <t>The user's message does not specifically inquire about a product or order status, but rather asks about applying a discount, which falls outside the defined intents.</t>
+        </is>
+      </c>
+      <c r="H81" s="11" t="inlineStr">
+        <is>
+          <t>SHIPPING_UPDATES - 0.95</t>
+        </is>
+      </c>
+      <c r="I81" s="11" t="inlineStr">
+        <is>
+          <t>Your order status is as follows: [details about order #295583].</t>
+        </is>
+      </c>
+      <c r="J81" s="11" t="inlineStr">
+        <is>
+          <t>The user is explicitly asking for an update on the status of their order, which falls under the SHIPPING_UPDATES sub intent.</t>
+        </is>
+      </c>
       <c r="K81" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>ORDER_STATUS</t>
         </is>
       </c>
       <c r="L81" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4885,7 @@
       </c>
       <c r="E82" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F82" s="11" t="inlineStr">
@@ -4854,17 +4900,17 @@
       </c>
       <c r="H82" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="I82" s="11" t="inlineStr">
         <is>
-          <t>I can help you with the assembly instructions for the Kunj Three Drawer Chest. However, I will need to check the details of your order first. Please hold on a moment.</t>
+          <t>I'm sorry, but I cannot provide assembly instructions for your order. However, I can help you with the details of your order. Please provide me with your order number.</t>
         </is>
       </c>
       <c r="J82" s="11" t="inlineStr">
         <is>
-          <t>The user's request for assembly instructions does not fit into any of the specified sub intents related to order status. It also includes a request for order details, which indicates a need for information beyond just shipping updates or confirmations.</t>
+          <t>The user's request for assembly instructions does not fall under any of the specified sub intents related to order status. It is more of a request for product information, which is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="K82" s="11" t="inlineStr">
@@ -4899,17 +4945,17 @@
       </c>
       <c r="E83" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F83" s="11" t="inlineStr">
         <is>
-          <t>The dimensions of the Glitz Chest are not specified in the product details. Please check the product page for more information.</t>
+          <t>Product details are given</t>
         </is>
       </c>
       <c r="G83" s="11" t="inlineStr">
         <is>
-          <t>The user is asking for specific dimensions of the product, which does not fall under the defined intents of order status, product availability, damages, returns, trade application, or banter. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's inquiry about the dimensions of the Glitz Chest does not specifically fall under any of the defined intents such as ORDER_STATUS, PRODUCT_AVAILABILITY, DAMAGES, RETURNS, or TRADE_APPLICATION. It is a general request for product information, which aligns with the 'OTHERS' intent.</t>
         </is>
       </c>
       <c r="H83" s="11" t="n"/>
@@ -4947,17 +4993,17 @@
       </c>
       <c r="E84" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.85</t>
         </is>
       </c>
       <c r="F84" s="11" t="inlineStr">
         <is>
-          <t>Thank you for sharing your feedback! We're thrilled to hear that you love the dining set and that the quality meets your expectations!</t>
+          <t>Thank you for sharing your feedback! We're thrilled to hear that you love your dining set and that the quality meets your expectations.</t>
         </is>
       </c>
       <c r="G84" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses happiness and positive feedback about a product, which aligns with casual conversation and expressions of gratitude, thus falling under the BANTER intent.</t>
+          <t>The user's message expresses happiness and positive feedback about a product, which aligns with casual conversation and expressions of gratitude, thus fitting the BANTER intent.</t>
         </is>
       </c>
       <c r="H84" s="11" t="n"/>
@@ -4995,17 +5041,17 @@
       </c>
       <c r="E85" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F85" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that you're feeling frustrated with your order. Can you please provide more details about the issues you're experiencing with the Glitz Chest? We're here to help you resolve this.</t>
+          <t>I'm sorry to hear that you're feeling frustrated with your order. Can you please provide more details about the issues you're experiencing with the Glitz Chest? We want to help resolve this for you.</t>
         </is>
       </c>
       <c r="G85" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses frustration and disappointment but does not specifically request a return, inquire about damages, or ask for order status. Therefore, it falls under 'OTHERS' as it does not fit neatly into the defined intents.</t>
+          <t>The user's message expresses frustration and disappointment but does not specifically inquire about a return, damage, or order status. It falls outside the defined intents, leading to the classification as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H85" s="11" t="n"/>
@@ -5043,17 +5089,17 @@
       </c>
       <c r="E86" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F86" s="11" t="inlineStr">
         <is>
-          <t>I apologize for the inconvenience you've experienced. We understand your frustration regarding the shipping delay and appreciate your patience. Please let us know if there's anything else we can assist you with.</t>
+          <t>I apologize for the inconvenience caused. We understand your frustration and appreciate your patience. Please let us know how we can assist you further.</t>
         </is>
       </c>
       <c r="G86" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses dissatisfaction with the order process and requests an apology rather than specific information about the order or a return. This falls outside the scope of the defined intents, leading to the classification as 'OTHERS'.</t>
+          <t>The user's message expresses dissatisfaction and a request for an apology rather than a specific inquiry about an order status, product availability, or a return. Therefore, it falls under the 'OTHERS' intent as it does not fit the defined categories.</t>
         </is>
       </c>
       <c r="H86" s="11" t="n"/>
@@ -5093,7 +5139,7 @@
       </c>
       <c r="E87" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F87" s="11" t="inlineStr">
@@ -5103,22 +5149,22 @@
       </c>
       <c r="G87" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly states their intention to return the product due to a delivery delay, which falls under the RETURNS intent as they are requesting to initiate the return process.</t>
+          <t>The user's message clearly indicates a desire to return a product due to delivery issues, which aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H87" s="11" t="inlineStr">
         <is>
-          <t>RETURNING_UNDELIVERED_ORDER</t>
+          <t>RETURNING_UNDELIVERED_ORDER - 0.85</t>
         </is>
       </c>
       <c r="I87" s="11" t="inlineStr">
         <is>
-          <t>I understand that the delay in delivery has caused an issue for you. I can assist you with returning the product. Please provide me with the details of your order.</t>
+          <t>I understand that the delay in delivery has caused inconvenience. I can assist you with the return process. Please provide me with the order details.</t>
         </is>
       </c>
       <c r="J87" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return the product due to a delay in delivery, which indicates that they are not satisfied with the service and want to return an undelivered order.</t>
+          <t>The user is expressing a desire to return the product due to a delivery issue, indicating that the order has not been received in time for a specific occasion, which aligns with the intent of returning an undelivered order.</t>
         </is>
       </c>
       <c r="K87" s="11" t="inlineStr">
@@ -5153,32 +5199,32 @@
       </c>
       <c r="E88" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F88" s="11" t="inlineStr">
         <is>
-          <t>We understand your concerns regarding the delivery delay. We can assist you with the return process for your order. Please provide us with the details of the product you wish to return, and we will guide you through the steps.</t>
+          <t>We understand your concerns regarding the delay in delivery. We can assist you with the return process for your order. Please provide us with the details of the product you wish to return, and we will guide you through the steps.</t>
         </is>
       </c>
       <c r="G88" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly states a desire to return the product due to a delivery delay, which aligns with the intent of requesting a return.</t>
+          <t>The user explicitly states a desire to return the product due to delivery issues, which aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H88" s="11" t="inlineStr">
         <is>
-          <t>RETURNING_UNDELIVERED_ORDER</t>
+          <t>RETURNING_UNDELIVERED_ORDER - 0.85</t>
         </is>
       </c>
       <c r="I88" s="11" t="inlineStr">
         <is>
-          <t>We understand your concern regarding the delay in delivery. We can assist you with the return process for your order. Please provide us with your order details so we can proceed.</t>
+          <t>We understand your concern regarding the delay in delivery. Since you mentioned wanting to return the product due to this issue, we can assist you with the return process. Please provide us with your order details so we can proceed.</t>
         </is>
       </c>
       <c r="J88" s="11" t="inlineStr">
         <is>
-          <t>The user is expressing a desire to return the product due to a delivery delay, which indicates that the order has not been delivered as expected. This aligns with the sub intent of RETURNING_UNDELIVERED_ORDER.</t>
+          <t>The user explicitly states they want to return the product due to a delivery delay, which aligns with the intent of returning an undelivered order.</t>
         </is>
       </c>
       <c r="K88" s="11" t="inlineStr">
@@ -5213,17 +5259,17 @@
       </c>
       <c r="E89" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="F89" s="11" t="inlineStr">
         <is>
-          <t>It seems like your message got a bit jumbled! How can I assist you today?</t>
+          <t>I'm sorry, I didn't quite understand that. Could you please clarify your message?</t>
         </is>
       </c>
       <c r="G89" s="11" t="inlineStr">
         <is>
-          <t>The user's message does not contain a clear inquiry or request related to products or orders, and instead appears to be a random string of characters, which suggests a casual or light-hearted interaction. Therefore, the intent is classified as BANTER.</t>
+          <t>The user's message appears to be a random string of characters without any clear intent or inquiry, which does not fit into any specific category of the defined intents. Therefore, it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="H89" s="11" t="inlineStr">
@@ -5243,12 +5289,12 @@
       </c>
       <c r="K89" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L89" s="11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -5273,32 +5319,32 @@
       </c>
       <c r="E90" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>PRODUCT_AVAILABILITY - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F90" s="11" t="inlineStr">
         <is>
-          <t>The discount codes DISCOUNT20, FALLSALE15, and WELCOME10 are applicable for the Porto Plate. However, I will need to check the current availability of the Porto Plate for you.</t>
+          <t>The discount codes DISCOUNT20, FALLSALE15, and WELCOME10 are applicable for the Porto Plate. Additionally, I can confirm that the Porto Plate is currently in stock.</t>
         </is>
       </c>
       <c r="G90" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry involves multiple aspects: checking the applicability of discount codes and confirming the availability of a product. Since it does not fit neatly into a single intent category, it is classified as 'OTHERS'.</t>
+          <t>The user is inquiring about the applicability of discount codes for a specific product (Porto Plate) and also asks for confirmation of its availability, which falls under the intent of checking product availability.</t>
         </is>
       </c>
       <c r="H90" s="11" t="inlineStr">
         <is>
-          <t>DISCOUNTS_AND_PROMOTIONS</t>
+          <t>DISCOUNTS_AND_PROMOTIONS - 0.85, STOCK_STATUS - 0.75</t>
         </is>
       </c>
       <c r="I90" s="11" t="inlineStr">
         <is>
-          <t>The discount codes DISCOUNT20, FALLSALE15, and WELCOME10 are applicable for the Porto Plate. Additionally, I can confirm that the Porto Plate is currently available.</t>
+          <t>The discount codes DISCOUNT20, FALLSALE15, and WELCOME10 are applicable for the Porto Plate. Additionally, I can confirm that the Porto Plate is currently in stock.</t>
         </is>
       </c>
       <c r="J90" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically asks about the applicability of discount codes for the Porto Plate and also requests confirmation of its availability, which aligns with the DISCOUNTS_AND_PROMOTIONS sub-intent.</t>
+          <t>The user is inquiring about the applicability of discount codes for the Porto Plate, which falls under DISCOUNTS_AND_PROMOTIONS. They also request confirmation of the product's availability, which aligns with STOCK_STATUS.</t>
         </is>
       </c>
       <c r="K90" s="11" t="inlineStr">
@@ -5333,17 +5379,17 @@
       </c>
       <c r="E91" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F91" s="11" t="inlineStr">
         <is>
-          <t>Thank you for reaching out. I understand that you would like to postpone your order for the Porto Plate. Unfortunately, we cannot change the delivery address at this stage. However, I can provide you with the order details so you can track it. Please hold on while I retrieve that information for you.</t>
+          <t>Thank you for reaching out. I understand that you would like to postpone your order for the Porto Plate. Unfortunately, I cannot change the delivery address or postpone the order directly. Please contact our customer service for further assistance with your request.</t>
         </is>
       </c>
       <c r="G91" s="11" t="inlineStr">
         <is>
-          <t>The user's request involves multiple aspects: postponing the order and changing the delivery address, which does not fit neatly into a single intent category. Therefore, it is classified as 'OTHERS'.</t>
+          <t>The user's request to postpone the order and change the delivery address does not fit into the specific intents of ORDER_STATUS, PRODUCT_AVAILABILITY, DAMAGES, RETURNS, or TRADE_APPLICATION. Therefore, it is classified as OTHERS, as it falls outside the defined intents.</t>
         </is>
       </c>
       <c r="H91" s="11" t="n"/>
@@ -5381,7 +5427,7 @@
       </c>
       <c r="E92" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.85, OTHERS - 0.75</t>
         </is>
       </c>
       <c r="F92" s="11" t="inlineStr">
@@ -5401,12 +5447,12 @@
       </c>
       <c r="I92" s="11" t="inlineStr">
         <is>
-          <t>Yes, the ongoing sale is applicable to trade customers as well. Additionally, we would be happy to assist your friend with the trade program application. Please let them know to reach out for more information.</t>
+          <t>Yes, the ongoing sale is applicable to trade customers as well. Additionally, we would be happy to assist your friend with the trade program application. Please let us know if they need any specific information or assistance.</t>
         </is>
       </c>
       <c r="J92" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the applicability of a sale for trade customers, which relates to the benefits of the trade program. The mention of their friend being ready to apply for the trade program further emphasizes the interest in program benefits.</t>
+          <t>The user is inquiring about the applicability of a sale for trade customers, which relates to the benefits of the trade program. Additionally, the mention of a friend ready to apply indicates interest in the program's advantages.</t>
         </is>
       </c>
       <c r="K92" s="11" t="inlineStr">
@@ -5441,32 +5487,32 @@
       </c>
       <c r="E93" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.9</t>
         </is>
       </c>
       <c r="F93" s="11" t="inlineStr">
         <is>
-          <t>I will send the order details for order 295959 to your neighbor at dummy@outlook.com.</t>
+          <t>Order details have been sent to your neighbor at dummy@outlook.com.</t>
         </is>
       </c>
       <c r="G93" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting specific order details for a previously placed order (295959) and is asking for those details to be sent to a different email address, which aligns with inquiries about the status of an order.</t>
+          <t>The user is requesting the order details for a specific order number (295959) to be sent to a different email address, which falls under the category of inquiring about the status of an order.</t>
         </is>
       </c>
       <c r="H93" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="I93" s="11" t="inlineStr">
         <is>
-          <t>I can send the order details to your neighbor at dummy@outlook.com.</t>
+          <t>Order details have been sent to your neighbor's email.</t>
         </is>
       </c>
       <c r="J93" s="11" t="inlineStr">
         <is>
-          <t>The user's request involves sending order details to a different email address, which does not fit into any specific sub-intent category. It combines elements of order details inquiry and a request for modification of delivery, thus classified as 'OTHERS'.</t>
+          <t>The user's request is about sending order details to a neighbor, which does not fit into any of the specified sub intents related to order status, shipping updates, or modifications. Therefore, it is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="K93" s="11" t="inlineStr">
@@ -5501,7 +5547,7 @@
       </c>
       <c r="E94" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.85, ORDER_STATUS - 0.75</t>
         </is>
       </c>
       <c r="F94" s="11" t="inlineStr">
@@ -5521,7 +5567,7 @@
       </c>
       <c r="I94" s="11" t="inlineStr">
         <is>
-          <t>Dear Merrick, we apologize for the inconvenience caused by the delay in your order. We understand your frustration and are here to assist you with the return process. Please find the necessary steps to initiate your return below: [insert return instructions]. Thank you for your patience, and we hope to resolve this matter promptly.</t>
+          <t>Dear Merrick, we apologize for the inconvenience caused by the delay in your order. To initiate the return process, please follow these steps: [insert return process steps]. If you have any further questions, feel free to reach out. Thank you for your understanding.</t>
         </is>
       </c>
       <c r="J94" s="11" t="inlineStr">
@@ -5531,12 +5577,12 @@
       </c>
       <c r="K94" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L94" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5562,12 +5608,12 @@
       </c>
       <c r="E95" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F95" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that your item was damaged. We can assist you with the return process. Please provide any additional details or photos if possible.</t>
+          <t>I'm sorry to hear that the item was damaged. We can assist you with the return process for the broken item. Please provide any additional details or photos if possible.</t>
         </is>
       </c>
       <c r="G95" s="11" t="inlineStr">
@@ -5577,17 +5623,17 @@
       </c>
       <c r="H95" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_AFTER_DELIVERY</t>
+          <t>DAMAGED_AFTER_DELIVERY - 0.85, DAMAGED_RETURN_REQUEST - 0.75</t>
         </is>
       </c>
       <c r="I95" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that the item broke after you attempted to fit it in your space. Please provide more details about the damage, and we can assist you with the next steps.</t>
+          <t>I understand that the item has broken after you attempted to fit it in your place. Would you like to proceed with a return request for this damaged item?</t>
         </is>
       </c>
       <c r="J95" s="11" t="inlineStr">
         <is>
-          <t>The user reports that the item broke after they forcefully pushed it to fit in their place, indicating that the damage occurred after delivery rather than during shipping.</t>
+          <t>The user reported that the item broke after they forcefully pushed it to fit, indicating damage occurred after delivery. This aligns with the DAMAGED_AFTER_DELIVERY intent. However, since the user may also be indicating a desire to return the item due to the damage, it also aligns with the DAMAGED_RETURN_REQUEST intent.</t>
         </is>
       </c>
       <c r="K95" s="11" t="inlineStr">
@@ -5622,7 +5668,7 @@
       </c>
       <c r="E96" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F96" s="11" t="inlineStr">
@@ -5637,17 +5683,17 @@
       </c>
       <c r="H96" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I96" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear about your experience. Let me check the status of your item and get back to you with an update.</t>
+          <t>I apologize for the inconvenience. Let me check the status of your order and provide you with an update on where your item is.</t>
         </is>
       </c>
       <c r="J96" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their item, specifically asking 'Where is my item?', which falls under the category of shipping updates.</t>
+          <t>The user is inquiring about the status of their item, specifically asking 'Where is my item?', which directly relates to shipping updates for an order that has already been placed.</t>
         </is>
       </c>
       <c r="K96" s="11" t="inlineStr">
@@ -5682,22 +5728,22 @@
       </c>
       <c r="E97" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F97" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that your product was damaged. I can assist you with the return process or arrange for a replacement. Please provide me with more details about the issue.</t>
+          <t>I'm sorry to hear that your product was damaged. Can you please provide more details about the issue so we can assist you with a return or replacement?</t>
         </is>
       </c>
       <c r="G97" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly mentions a damaged product, indicating a need for assistance related to damages, which aligns with the DAMAGES intent.</t>
+          <t>The user explicitly mentions a 'damaged product' which indicates a concern related to product damage, aligning with the DAMAGES intent.</t>
         </is>
       </c>
       <c r="H97" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.9</t>
         </is>
       </c>
       <c r="I97" s="11" t="inlineStr">
@@ -5707,7 +5753,7 @@
       </c>
       <c r="J97" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting a callback to discuss a damaged product, which falls outside the specific sub-intents related to damages and instead indicates a need for direct contact.</t>
+          <t>The user is requesting a callback to discuss a damaged product, which falls outside the specific sub intents related to damages and is classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="K97" s="11" t="inlineStr">
@@ -5742,7 +5788,7 @@
       </c>
       <c r="E98" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95, OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F98" s="11" t="inlineStr">
@@ -5752,7 +5798,7 @@
       </c>
       <c r="G98" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses disappointment and frustration regarding the shipping timeline of their order, indicating a clear inquiry about the status of their order and the changes in shipping estimates.</t>
+          <t>The user's message expresses disappointment and frustration regarding the shipping timeline of their order, indicating a need for clarification and updates on the order status.</t>
         </is>
       </c>
       <c r="H98" s="11" t="inlineStr">
@@ -5762,22 +5808,22 @@
       </c>
       <c r="I98" s="11" t="inlineStr">
         <is>
-          <t>Hi Laurie, I understand your frustration regarding the shipping date for your desk. I apologize for the changes in the estimated shipping timeline. Unfortunately, the new estimated shipping date is October 22, 2024. We appreciate your patience and will keep you updated with any further information. Is there anything else I can assist you with?</t>
+          <t>Hi Laurie, I understand your frustration regarding the shipping delays. I apologize for the inconvenience. The estimated shipping date for your desk is still October 22, 2024. We appreciate your patience and will keep you updated with any changes. Is there anything else I can assist you with?</t>
         </is>
       </c>
       <c r="J98" s="11" t="inlineStr">
         <is>
-          <t>The user's last message expresses disappointment about the shipping date of their desk, indicating a concern about the shipping timeline. This aligns with the SHIPPING_UPDATES sub-intent, as the user is inquiring about the shipping status of an order that has already been placed.</t>
+          <t>The user's last message expresses disappointment and frustration regarding the shipping date of their order, indicating a clear inquiry about shipping updates. Therefore, the sub intent is classified as SHIPPING_UPDATES.</t>
         </is>
       </c>
       <c r="K98" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L98" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5804,20 +5850,18 @@
       </c>
       <c r="E99" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>ORDER_STATUS - 0.85, OTHERS - 0.75</t>
         </is>
       </c>
       <c r="F99" s="11" t="inlineStr">
         <is>
           <t>Hi April,
-I understand your frustration regarding the delay and the impact it has had on your installation plans. I assure you that we are committed to resolving this issue as quickly as possible. I will escalate your case to ensure that we find a suitable resolution for you. Please allow me some time to gather the necessary information, and I will get back to you shortly with an update. Thank you for your patience.
-Best regards,
-Travis</t>
+I understand your frustration regarding the delay and the impact it has had on your installation plans. I assure you that we are committed to resolving this issue as quickly as possible. I will escalate your case to ensure that we can provide you with a timely resolution. Thank you for your patience, and I will keep you updated on the progress.</t>
         </is>
       </c>
       <c r="G99" s="11" t="inlineStr">
         <is>
-          <t>The user's email expresses frustration over the delay in resolving an issue with their order and indicates a need for urgent resolution. While it touches on aspects of order status, the overall tone and content suggest a broader concern about customer service and accountability, which does not fit neatly into the defined intents.</t>
+          <t>The user's message expresses frustration over the delay in resolving an issue with their order and indicates a need for resolution, but it does not specifically inquire about the status of an order or request a return or refund. Therefore, it falls under 'OTHERS' as it discusses multiple concerns without a clear intent.</t>
         </is>
       </c>
       <c r="H99" s="11" t="inlineStr">
@@ -5867,17 +5911,20 @@
       </c>
       <c r="E100" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.9</t>
         </is>
       </c>
       <c r="F100" s="11" t="inlineStr">
         <is>
-          <t>You're welcome! If you have any other questions, feel free to ask.</t>
+          <t>Hi,
+You're welcome! If you have any more questions, feel free to ask.
+Best regards,
+Sophia</t>
         </is>
       </c>
       <c r="G100" s="11" t="inlineStr">
         <is>
-          <t>The user's last message expresses gratitude, which aligns with the BANTER intent. There is no inquiry or request for information, so the response would be friendly and casual.</t>
+          <t>The user's message expresses gratitude, which aligns with the BANTER intent. The bot's likely response acknowledges this gratitude in a friendly manner.</t>
         </is>
       </c>
       <c r="H100" s="11" t="inlineStr">
@@ -5928,7 +5975,7 @@
       </c>
       <c r="E101" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.95</t>
         </is>
       </c>
       <c r="F101" s="11" t="inlineStr">
@@ -5938,7 +5985,7 @@
       </c>
       <c r="G101" s="11" t="inlineStr">
         <is>
-          <t>The last message does not contain any specific inquiry or request but rather appears to be a greeting or casual conversation, which aligns with the BANTER intent.</t>
+          <t>The last message does not contain any specific inquiry or request, indicating a casual greeting or conversation, which aligns with the BANTER intent.</t>
         </is>
       </c>
       <c r="H101" s="11" t="n"/>
@@ -5976,12 +6023,12 @@
       </c>
       <c r="E102" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F102" s="11" t="inlineStr">
         <is>
-          <t>Thank you for reaching out, Elizabeth. I apologize for the inconvenience you've experienced with the defective pendant light. I will ensure that your return request is processed promptly and that you receive a full refund. Please expect an email from our team shortly to confirm the details.</t>
+          <t>Thank you for reaching out, Elizabeth. I apologize for the inconvenience you've experienced with the defective pendant light. I will ensure that your request for a return and full refund is processed promptly. A member of our customer service team will contact you shortly at the email or phone number you provided.</t>
         </is>
       </c>
       <c r="G102" s="11" t="inlineStr">
@@ -5991,7 +6038,7 @@
       </c>
       <c r="H102" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>REFUND - 0.95, RETURNING_DAMAGED_PRODUCT - 0.90</t>
         </is>
       </c>
       <c r="I102" s="11" t="inlineStr">
@@ -6001,7 +6048,7 @@
       </c>
       <c r="J102" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requests a full refund for a defective product, which falls under the REFUND sub-intent.</t>
+          <t>The user explicitly requests a return and a full refund for a defective product, which aligns with both the REFUND and RETURNING_DAMAGED_PRODUCT intents.</t>
         </is>
       </c>
       <c r="K102" s="11" t="inlineStr">
@@ -6036,22 +6083,22 @@
       </c>
       <c r="E103" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F103" s="11" t="inlineStr">
         <is>
-          <t>Hi Missy, thank you for your email. We have received your return and will process it shortly. If you have any further questions or need assistance, feel free to reach out.</t>
+          <t>Hi Missy, thank you for your message. I will check our records to confirm if we have received the return of the mirror. I appreciate your patience and will get back to you shortly.</t>
         </is>
       </c>
       <c r="G103" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of a return they initiated, which aligns with the RETURNS intent as they are confirming whether the return has been received.</t>
+          <t>The user is inquiring about the status of a return for a mirror, which aligns with the RETURNS intent as it involves confirming the receipt of a returned item.</t>
         </is>
       </c>
       <c r="H103" s="11" t="inlineStr">
         <is>
-          <t>RETURNING_UNDELIVERED_ORDER</t>
+          <t>RETURNS_PROCESSING - 0.85, QUERIES - 0.75</t>
         </is>
       </c>
       <c r="I103" s="11" t="inlineStr">
@@ -6061,7 +6108,7 @@
       </c>
       <c r="J103" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their return, indicating that they have already sent the item back and are checking if it has been received, which aligns with the intent of returning an undelivered order.</t>
+          <t>The user is inquiring about the status of their return, indicating that they have already initiated the return process and are checking if it has been received. This aligns with both RETURNS_PROCESSING and QUERIES intents.</t>
         </is>
       </c>
       <c r="K103" s="11" t="inlineStr">
@@ -6096,17 +6143,17 @@
       </c>
       <c r="E104" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>DAMAGES - 0.85, OTHERS - 0.75</t>
         </is>
       </c>
       <c r="F104" s="11" t="inlineStr">
         <is>
-          <t>I apologize for the delay in communication regarding your refund. I will escalate this issue to the appropriate department and ensure that someone contacts you shortly to resolve your concerns.</t>
+          <t>Hello Kerri, I apologize for the delay in communication regarding your refund and the damage to your mirrors. I will escalate this issue to our damage control department immediately and ensure that someone contacts you as soon as possible to resolve this matter. Thank you for your patience.</t>
         </is>
       </c>
       <c r="G104" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses frustration over a lack of communication regarding a refund and compensation, which does not fit neatly into any of the specific intents but indicates a need for assistance and resolution, thus classified as 'OTHERS'.</t>
+          <t>The user is inquiring about a refund/compensation related to mirrors that were damaged during shipping, indicating a need for resolution regarding the damages.</t>
         </is>
       </c>
       <c r="H104" s="11" t="inlineStr">
@@ -6116,12 +6163,12 @@
       </c>
       <c r="I104" s="11" t="inlineStr">
         <is>
-          <t>Hello Kerri, I apologize for the delay in communication regarding your refund/compensation for the damaged mirrors. I understand your frustration and will escalate this matter to ensure you receive a prompt response. Thank you for your patience.</t>
+          <t>Thank you for your patience, Kerri. I apologize for the delay in communication regarding your refund/compensation. I will escalate this matter to the damage control department and ensure that someone contacts you shortly to resolve the issue with your mirrors.</t>
         </is>
       </c>
       <c r="J104" s="11" t="inlineStr">
         <is>
-          <t>The user is following up on a refund or compensation for damaged mirrors, indicating a request for claims or compensation due to the lack of communication from the damage control department.</t>
+          <t>The user is following up on a previous conversation regarding a refund or compensation for damaged items, indicating a request for claims or compensation.</t>
         </is>
       </c>
       <c r="K104" s="11" t="inlineStr">
@@ -6156,12 +6203,12 @@
       </c>
       <c r="E105" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.85, OTHERS - 0.65</t>
         </is>
       </c>
       <c r="F105" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear about your situation. We can assist you with the return process for the stools. Since you mentioned difficulties in packing and shipping, we can arrange for a pickup or provide an alternative solution. Please let us know how you would like to proceed.</t>
+          <t>I'm sorry to hear about your loss and the difficulties you've been facing. We can assist you with the return process for the stools. Since you mentioned you are unable to pack them up, we can arrange for a pickup or provide you with an invoice instead. Please let us know how you would like to proceed.</t>
         </is>
       </c>
       <c r="G105" s="11" t="inlineStr">
@@ -6171,7 +6218,7 @@
       </c>
       <c r="H105" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="I105" s="11" t="inlineStr">
@@ -6181,7 +6228,7 @@
       </c>
       <c r="J105" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting assistance with returning an item but mentions the inability to find a box or lift the stool due to personal circumstances. This situation does not fit neatly into any of the defined sub-intents, particularly as it involves a request for an invoice rather than a straightforward return process.</t>
+          <t>The user is unable to return the item due to personal circumstances and is requesting an invoice instead. This does not fit into the standard return processes, hence classified as 'OTHERS'.</t>
         </is>
       </c>
       <c r="K105" s="11" t="inlineStr">
@@ -6216,7 +6263,7 @@
       </c>
       <c r="E106" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95, OTHERS - 0.75</t>
         </is>
       </c>
       <c r="F106" s="11" t="inlineStr">
@@ -6226,7 +6273,7 @@
       </c>
       <c r="G106" s="11" t="inlineStr">
         <is>
-          <t>The user's email is specifically requesting to return a product and is inquiring about the return shipping label and restocking fee, which aligns with the intent of RETURNS.</t>
+          <t>The user is requesting to return a product and is specifically asking for a free return shipping label and a waiver of the restocking fee, which aligns with the intent of returning a product.</t>
         </is>
       </c>
       <c r="H106" s="11" t="inlineStr">
@@ -6236,12 +6283,12 @@
       </c>
       <c r="I106" s="11" t="inlineStr">
         <is>
-          <t>Hi, Thank you for your message. I understand your concern regarding the return shipping label and the restocking fee. Unfortunately, we are unable to provide free return shipping labels or waive the restocking fee as per our policy. However, I recommend checking our returns policy for any promotions or exceptions that may apply. If you have any further questions or need assistance, please let me know. Best regards, Sophia</t>
+          <t>Hi, Thank you for your message. I understand your concern regarding the return shipping label and the restocking fee. Unfortunately, we are unable to provide free return shipping labels or waive the restocking fee as per our policy. However, I can assist you with the return process using the label provided. If you have any further questions or need assistance, please let me know. Best regards, Sophia</t>
         </is>
       </c>
       <c r="J106" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting a free shipping label and asking for the restocking fee to be waived, which falls under negotiations regarding return shipping charges.</t>
+          <t>The user is requesting a free shipping label and a waiver of the restocking fee, which falls under negotiations regarding return shipping charges.</t>
         </is>
       </c>
       <c r="K106" s="11" t="inlineStr">
@@ -6276,7 +6323,7 @@
       </c>
       <c r="E107" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.85, ORDER_STATUS - 0.75</t>
         </is>
       </c>
       <c r="F107" s="11" t="inlineStr">
@@ -6286,7 +6333,7 @@
       </c>
       <c r="G107" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about a credit related to a return, specifically asking for details about the amount being credited and the name associated with the return. This aligns with the RETURNS intent, which handles customer requests for returning products that are delivered and not damaged.</t>
+          <t>The user is inquiring about the credit for a return, which indicates a request related to returning a product that has already been delivered. This aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H107" s="11" t="inlineStr">
@@ -6296,7 +6343,7 @@
       </c>
       <c r="I107" s="11" t="inlineStr">
         <is>
-          <t>Thank you for reaching out. I can help you with your refund inquiry. The credit for your return should be processed shortly. The amount credited will depend on the item returned and the return policy. Please allow a few business days for the transaction to reflect on your card. Regarding the name, it should be Wisteria. If you have any further questions, feel free to ask!</t>
+          <t>Thank you for reaching out. I can help you with your refund inquiry. The credit for your return should be processed shortly. The amount credited will depend on the return policy and the item returned. Please allow a few business days for the transaction to reflect on your card. Regarding the name, it should be Wisteria. If you have any further questions, feel free to ask!</t>
         </is>
       </c>
       <c r="J107" s="11" t="inlineStr">
@@ -6336,12 +6383,12 @@
       </c>
       <c r="E108" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F108" s="11" t="inlineStr">
         <is>
-          <t>Thank you for reaching out. I can assist you with the return process for your product. Please provide me with the details of the product you wish to return, and I will arrange for a replacement.</t>
+          <t>Sure, I can help you with the return process. Please provide me with the details of the product you want to return, and I will assist you with the replacement.</t>
         </is>
       </c>
       <c r="G108" s="11" t="inlineStr">
@@ -6351,17 +6398,17 @@
       </c>
       <c r="H108" s="11" t="inlineStr">
         <is>
-          <t>REPLACEMENT</t>
+          <t>REPLACEMENT - 0.85, RETURNS_PROCESSING - 0.75</t>
         </is>
       </c>
       <c r="I108" s="11" t="inlineStr">
         <is>
-          <t>I can assist you with the replacement process. Please provide me with the details of the product you wish to return.</t>
+          <t>To initiate the return process for your product, please provide the order number and the reason for the return. If you would like a replacement, we can assist you with that as well.</t>
         </is>
       </c>
       <c r="J108" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly mentions wanting to return a product in exchange for a replacement, which directly aligns with the REPLACEMENT sub intent.</t>
+          <t>The user explicitly mentions wanting to return a product and also requests a replacement, which aligns with both the REPLACEMENT and RETURNS_PROCESSING intents.</t>
         </is>
       </c>
       <c r="K108" s="11" t="inlineStr">
@@ -6396,32 +6443,32 @@
       </c>
       <c r="E109" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F109" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that your product arrived severely damaged. We can assist you with the return process. Please provide your order details, and we'll get started on this right away.</t>
+          <t>I'm sorry to hear that your product was severely damaged during shipping. We can assist you with the return process. Please provide your order details so we can help you further.</t>
         </is>
       </c>
       <c r="G109" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly mentions wanting to return a product that is severely damaged, which falls under the DAMAGES intent as it relates to product damage during shipping.</t>
+          <t>The user explicitly mentions wanting to return a product that is severely damaged, which directly aligns with the DAMAGES intent related to product damage during shipping.</t>
         </is>
       </c>
       <c r="H109" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.95</t>
         </is>
       </c>
       <c r="I109" s="11" t="inlineStr">
         <is>
-          <t>We understand that the product you received is severely damaged. Please provide us with your order details so we can assist you with the return process.</t>
+          <t>I understand that you want to return a product that arrived severely damaged. Please provide me with your order details so I can assist you with the return process.</t>
         </is>
       </c>
       <c r="J109" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly states they want to return a product that is severely damaged, indicating a request to return an item due to damage during shipping.</t>
+          <t>The user explicitly states they want to return a product that is severely damaged, which aligns with the DAMAGED_RETURN_REQUEST sub intent.</t>
         </is>
       </c>
       <c r="K109" s="11" t="inlineStr">
@@ -6457,7 +6504,7 @@
       </c>
       <c r="E110" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95, ORDER_STATUS - 0.85</t>
         </is>
       </c>
       <c r="F110" s="11" t="inlineStr">
@@ -6477,12 +6524,12 @@
       </c>
       <c r="I110" s="11" t="inlineStr">
         <is>
-          <t>I understand that your order has been delayed and you no longer want the product. I can assist you with the return process. Please provide me with your order details so we can proceed.</t>
+          <t>Thank you for reaching out. Since your order has been delayed and you no longer want the product, we can assist you with the return process. Please provide your order number, and we will guide you through the steps to return the item.</t>
         </is>
       </c>
       <c r="J110" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly states that their order has been delayed and they no longer want the product, indicating a request to return an undelivered order.</t>
+          <t>The user is requesting to return a product due to the order being delayed and not arriving, which indicates they want to return an undelivered order.</t>
         </is>
       </c>
       <c r="K110" s="11" t="inlineStr">
@@ -6517,7 +6564,7 @@
       </c>
       <c r="E111" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.85, RETURNS - 0.75</t>
         </is>
       </c>
       <c r="F111" s="11" t="inlineStr">
@@ -6527,22 +6574,22 @@
       </c>
       <c r="G111" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the order details and expressing a desire to either proceed with the order or refuse it, which aligns with the intent of checking the status of an order.</t>
+          <t>The user is inquiring about the order details and expressing a desire to either proceed with the order or cancel it, which falls under the category of checking the status of an order.</t>
         </is>
       </c>
       <c r="H111" s="11" t="inlineStr">
         <is>
-          <t>CANCELLATION</t>
+          <t>CANCELLATION - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="I111" s="11" t="inlineStr">
         <is>
-          <t>We have received your request to cancel order 294949. Please confirm if you would like to proceed with the cancellation.</t>
+          <t>I understand that you are refusing the order. Please confirm if you would like to proceed with the cancellation or if you need further assistance with the order details.</t>
         </is>
       </c>
       <c r="J111" s="11" t="inlineStr">
         <is>
-          <t>The user is expressing a refusal of the order, which indicates a desire to cancel it. The request for order details further supports the cancellation intent.</t>
+          <t>The user explicitly states they are refusing the order, which indicates a desire to cancel it. The request for order details also suggests a need for clarification, but the primary intent is to cancel the order.</t>
         </is>
       </c>
       <c r="K111" s="11" t="inlineStr">
@@ -6577,12 +6624,12 @@
       </c>
       <c r="E112" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F112" s="11" t="inlineStr">
         <is>
-          <t>Could you please specify which chair you are interested in? I can check its availability for you.</t>
+          <t>Could you please specify which chair you are interested in? I can help you check its availability.</t>
         </is>
       </c>
       <c r="G112" s="11" t="inlineStr">
@@ -6592,17 +6639,17 @@
       </c>
       <c r="H112" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_QUERIES</t>
+          <t>PRODUCT_QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I112" s="11" t="inlineStr">
         <is>
-          <t>Could you please specify what information you would like to know about the chair? I can help with details like dimensions, materials, or features.</t>
+          <t>Could you please specify what information you would like to know about the chair? I can help with details such as dimensions, materials, or features.</t>
         </is>
       </c>
       <c r="J112" s="11" t="inlineStr">
         <is>
-          <t>The user's message is a general inquiry about a chair without specifying any particular aspect such as availability or ordering. This aligns with the PRODUCT_QUERIES sub-intent, which handles general queries about the product itself.</t>
+          <t>The user is inquiring about a chair without specifying the exact information they want, which aligns with general product queries regarding dimensions, materials, or features.</t>
         </is>
       </c>
       <c r="K112" s="11" t="inlineStr">
@@ -6637,7 +6684,7 @@
       </c>
       <c r="E113" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F113" s="11" t="inlineStr">
@@ -6647,22 +6694,22 @@
       </c>
       <c r="G113" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about the availability of a product (SKU ID 123-456789), which directly aligns with the PRODUCT_AVAILABILITY intent.</t>
+          <t>The user's inquiry is about the availability of a specific product SKU ID, which directly aligns with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H113" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I113" s="11" t="inlineStr">
         <is>
-          <t>The product SKU ID 123-456789 is currently available.</t>
+          <t>Product Details Given</t>
         </is>
       </c>
       <c r="J113" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of a specific product SKU ID, which directly aligns with the STOCK_STATUS sub intent.</t>
+          <t>The user is inquiring about the availability of a specific product SKU, which directly aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K113" s="11" t="inlineStr">
@@ -6697,32 +6744,32 @@
       </c>
       <c r="E114" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F114" s="11" t="inlineStr">
         <is>
-          <t>The SKU ID 108-000307 is currently available in Los Angeles.</t>
+          <t>Product details are given</t>
         </is>
       </c>
       <c r="G114" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically asks about the availability of a product (SKU ID 108-000307) in a particular location (Los Angeles), which directly aligns with the PRODUCT_AVAILABILITY intent.</t>
+          <t>The user's inquiry is specifically about the availability of a product (SKU ID 108-000307) in a particular location (Los Angeles), which aligns with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H114" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="I114" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry, but I need to check the availability of SKU ID 108-000307 in Los Angeles. Please hold on for a moment.</t>
+          <t>The availability of SKU ID 108-000307 in Los Angeles is currently being checked. Please hold on for a moment.</t>
         </is>
       </c>
       <c r="J114" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of a product in a specific location (Los Angeles), which falls under the 'OTHERS' category as it does not fit into the defined sub-intents.</t>
+          <t>The user is inquiring about the availability of a product in a specific location (Los Angeles), which falls under the 'OTHERS' category as it does not match the specific sub intents related to product availability.</t>
         </is>
       </c>
       <c r="K114" s="11" t="inlineStr">
@@ -6757,42 +6804,42 @@
       </c>
       <c r="E115" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F115" s="11" t="inlineStr">
         <is>
-          <t>I'm sorry to hear that your product arrived damaged. We will assist you with the return process and arrange for a replacement. Please provide any additional details or photos if possible.</t>
+          <t>I'm sorry to hear that your product was damaged. We can assist you with the return process for the damaged item. Please provide any additional details or photos if possible.</t>
         </is>
       </c>
       <c r="G115" s="11" t="inlineStr">
         <is>
-          <t>The user is reporting a damaged product received, specifically mentioning a broken leg on the table, which falls under the DAMAGES intent.</t>
+          <t>The user is reporting a damaged product received, specifically mentioning a broken leg on the table, which directly aligns with the DAMAGES intent.</t>
         </is>
       </c>
       <c r="H115" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_DURING_SHIPPING</t>
+          <t>DAMAGED_DURING_SHIPPING - 0.95, CLAIMS_AND_REFUND - 0.85</t>
         </is>
       </c>
       <c r="I115" s="11" t="inlineStr">
         <is>
-          <t>We're sorry to hear that your product arrived damaged. We will assist you in resolving this issue promptly. Please provide any additional details or photos of the damage if possible.</t>
+          <t>I'm sorry to hear that you received a damaged product. We can assist you with this issue. Please provide any additional details or photos of the damage, and we will work on a resolution for your order #295938.</t>
         </is>
       </c>
       <c r="J115" s="11" t="inlineStr">
         <is>
-          <t>The user reported receiving a damaged product upon arrival, specifically mentioning a broken leg on the table, which falls under the category of items damaged during shipping.</t>
+          <t>The user reported receiving a damaged product, which aligns with the DAMAGED_DURING_SHIPPING intent. Additionally, the mention of damage could also imply a request for compensation, aligning with the CLAIMS_AND_REFUND intent.</t>
         </is>
       </c>
       <c r="K115" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L115" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -6817,32 +6864,32 @@
       </c>
       <c r="E116" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F116" s="11" t="inlineStr">
         <is>
-          <t>To return your order ID #295352, please follow these steps: 1. Ensure the item is in its original condition. 2. Pack the item securely. 3. Use the return label included in your package or print a new one from our website. 4. Drop off the package at the nearest shipping location. If you have any questions, feel free to ask!</t>
+          <t>To return your order ID #295352, please follow these steps: [insert return process details]. If you have any further questions, feel free to ask!</t>
         </is>
       </c>
       <c r="G116" s="11" t="inlineStr">
         <is>
-          <t>The user is explicitly requesting information on how to return a specific order, which falls under the RETURNS intent.</t>
+          <t>The user is explicitly requesting information on how to return an order, which falls under the RETURNS intent as it involves the process of returning a product.</t>
         </is>
       </c>
       <c r="H116" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.95</t>
         </is>
       </c>
       <c r="I116" s="11" t="inlineStr">
         <is>
-          <t>To initiate the return process for order ID #295352, please follow these steps: [insert return process steps]. If you need a return label, let me know!</t>
+          <t>To initiate the return process for order ID #295352, please follow these steps: [insert return process steps].</t>
         </is>
       </c>
       <c r="J116" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly mentions wanting to return an order and requests information on the process, which falls under the RETURNS_PROCESSING sub-intent.</t>
+          <t>The user explicitly requests to return an order and asks for the process, which aligns with the RETURNS_PROCESSING intent.</t>
         </is>
       </c>
       <c r="K116" s="11" t="inlineStr">
@@ -6877,7 +6924,7 @@
       </c>
       <c r="E117" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.95</t>
         </is>
       </c>
       <c r="F117" s="11" t="inlineStr">
@@ -6887,22 +6934,22 @@
       </c>
       <c r="G117" s="11" t="inlineStr">
         <is>
-          <t>The user is expressing a desire to apply for a trade program, which falls under inquiries and applications related to trade accounts.</t>
+          <t>The user is expressing a desire to apply for a trade program, which falls under inquiries related to trade accounts. Therefore, the intent is classified as TRADE_APPLICATION.</t>
         </is>
       </c>
       <c r="H117" s="11" t="inlineStr">
         <is>
-          <t>TRADE_ACCOUNT</t>
+          <t>TRADE_ACCOUNT - 0.95</t>
         </is>
       </c>
       <c r="I117" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your interest in our trade program! To apply, please provide the necessary details, and we will assist you with the application process.</t>
+          <t>Thank you for your interest in applying for our trade program! I can assist you with the application process. Please provide the necessary details to get started.</t>
         </is>
       </c>
       <c r="J117" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly states their intention to apply for a trade program, which falls under the TRADE_ACCOUNT sub-intent as it relates to setting up a new trade account.</t>
+          <t>The user's email body explicitly states a desire to apply for a trade program, which falls under the TRADE_ACCOUNT sub intent as it relates to setting up a new trade account.</t>
         </is>
       </c>
       <c r="K117" s="11" t="inlineStr">
@@ -6937,32 +6984,32 @@
       </c>
       <c r="E118" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.95</t>
         </is>
       </c>
       <c r="F118" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your trade application submission, DESIGN CORNER INC. We will review your application and get back to you shortly.</t>
+          <t>You can reply to this email to respond directly to the person who submitted this form.</t>
         </is>
       </c>
       <c r="G118" s="11" t="inlineStr">
         <is>
-          <t>The email body contains a submission of a trade application form, which directly relates to inquiries and applications for trade accounts.</t>
+          <t>The email body indicates a submission of a new trade application form, which directly aligns with the TRADE_APPLICATION intent.</t>
         </is>
       </c>
       <c r="H118" s="11" t="inlineStr">
         <is>
-          <t>TRADE_ACCOUNT</t>
+          <t>TRADE_ACCOUNT - 1.0</t>
         </is>
       </c>
       <c r="I118" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your submission of the new trade application form. We will review the information provided and get back to you shortly regarding the status of your application.</t>
+          <t>Thank you for your submission. We will review your trade application and get back to you shortly.</t>
         </is>
       </c>
       <c r="J118" s="11" t="inlineStr">
         <is>
-          <t>The email body contains a submission of a new trade application form, which directly relates to setting up a new trade account. Therefore, it is classified under the TRADE_ACCOUNT sub-intent.</t>
+          <t>The email body contains a submission of a new trade application, which directly relates to setting up a new trade account.</t>
         </is>
       </c>
       <c r="K118" s="11" t="inlineStr">
@@ -6997,32 +7044,32 @@
       </c>
       <c r="E119" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F119" s="11" t="inlineStr">
         <is>
-          <t>I apologize for the delay. Your order is currently being processed, and I will provide you with an update as soon as possible.</t>
+          <t>Your order is currently being processed and we expect to have an update for you shortly.</t>
         </is>
       </c>
       <c r="G119" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their order, specifically mentioning that it was due last week and asking for an update, which aligns with the ORDER_STATUS intent.</t>
+          <t>The user's message inquires about the status of their order, specifically asking for an update on a delivery that was expected last week, which aligns with the ORDER_STATUS intent.</t>
         </is>
       </c>
       <c r="H119" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I119" s="11" t="inlineStr">
         <is>
-          <t>Your order was due last week, and I understand your concern. Let me check the status and get back to you with an update.</t>
+          <t>Your order is scheduled to ship on 12/12/23.</t>
         </is>
       </c>
       <c r="J119" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their order, specifically asking for an update on an order that was expected to arrive last week, which falls under the category of shipping updates.</t>
+          <t>The user is inquiring about the status of their order and specifically asking for an update on the expected delivery date, which falls under the SHIPPING_UPDATES sub intent.</t>
         </is>
       </c>
       <c r="K119" s="11" t="inlineStr">
@@ -7057,7 +7104,7 @@
       </c>
       <c r="E120" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F120" s="11" t="inlineStr">
@@ -7067,22 +7114,22 @@
       </c>
       <c r="G120" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their package, which indicates they are looking for information regarding the shipment of their order.</t>
+          <t>The user's inquiry is specifically about the status of their package, which aligns with the ORDER_STATUS intent as it seeks information regarding the shipment of an order.</t>
         </is>
       </c>
       <c r="H120" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I120" s="11" t="inlineStr">
         <is>
-          <t>Your package is on its way. I will check the status and get back to you shortly.</t>
+          <t>Your package is on its way. I will check the status for you.</t>
         </is>
       </c>
       <c r="J120" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their package, which falls under the category of shipping updates as they are looking for information regarding the shipment of their order.</t>
+          <t>The user's inquiry about whether their package is on its way indicates a request for shipping updates, which aligns with the SHIPPING_UPDATES sub intent.</t>
         </is>
       </c>
       <c r="K120" s="11" t="inlineStr">
@@ -7117,32 +7164,32 @@
       </c>
       <c r="E121" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 1.0</t>
         </is>
       </c>
       <c r="F121" s="11" t="inlineStr">
         <is>
-          <t>Your order is expected to arrive within the next few days.</t>
+          <t>Your order has shipped and should arrive soon.</t>
         </is>
       </c>
       <c r="G121" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the estimated arrival time of their order, which falls under the ORDER_STATUS intent as it specifically relates to the status of an order that has already been placed.</t>
+          <t>The user's inquiry is specifically about the arrival time of their order, which falls under the category of checking the status of an order that has already been placed.</t>
         </is>
       </c>
       <c r="H121" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I121" s="11" t="inlineStr">
         <is>
-          <t>Your order is on its way and should arrive shortly.</t>
+          <t>Your order has shipped and should arrive soon.</t>
         </is>
       </c>
       <c r="J121" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring specifically about the estimated arrival time of their order, which falls under the SHIPPING_UPDATES sub-intent.</t>
+          <t>The user's last message specifically inquires about the estimated arrival time of their order, which falls under the SHIPPING_UPDATES sub intent as it is related to shipping status and delivery timing.</t>
         </is>
       </c>
       <c r="K121" s="11" t="inlineStr">
@@ -7177,32 +7224,32 @@
       </c>
       <c r="E122" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F122" s="11" t="inlineStr">
         <is>
-          <t>Your order has shipped and is on its way. You can track it using the tracking number provided in your confirmation email.</t>
+          <t>Your order has shipped. You can track it using the tracking number provided in your confirmation email.</t>
         </is>
       </c>
       <c r="G122" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about shipping details for their order, which falls under the intent of checking the status of an order that has already been placed.</t>
+          <t>The user's inquiry specifically asks for shipping details regarding their order, which falls under the intent of checking the status of an order.</t>
         </is>
       </c>
       <c r="H122" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I122" s="11" t="inlineStr">
         <is>
-          <t>Your order is being processed, and I will provide you with the shipping details shortly.</t>
+          <t>Your order is confirmed to be delivered by [Date].</t>
         </is>
       </c>
       <c r="J122" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about shipping details for their order, which falls under the SHIPPING_UPDATES sub-intent as it specifically relates to tracking information and estimated shipping dates.</t>
+          <t>The user's last message specifically inquires about shipping details for their order, which aligns with the SHIPPING_UPDATES sub intent.</t>
         </is>
       </c>
       <c r="K122" s="11" t="inlineStr">
@@ -7237,22 +7284,22 @@
       </c>
       <c r="E123" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F123" s="11" t="inlineStr">
         <is>
-          <t>We are currently checking the status of your delivery and will get back to you with an estimated delivery date shortly.</t>
+          <t>We are looking into this and will provide an update on the delivery date.</t>
         </is>
       </c>
       <c r="G123" s="11" t="inlineStr">
         <is>
-          <t>The user's last message is inquiring about the expected delivery date, which falls under the category of checking the status of an order that has already been placed.</t>
+          <t>The user's inquiry about the expected delivery aligns with the intent of checking the status of an order, specifically regarding delivery timing.</t>
         </is>
       </c>
       <c r="H123" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I123" s="11" t="inlineStr">
@@ -7262,7 +7309,7 @@
       </c>
       <c r="J123" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about when to expect delivery indicates a request for shipping updates, specifically regarding the status and timing of their order.</t>
+          <t>The user's inquiry about the expected delivery date indicates a request for shipping updates, which aligns with the SHIPPING_UPDATES sub intent.</t>
         </is>
       </c>
       <c r="K123" s="11" t="inlineStr">
@@ -7297,7 +7344,7 @@
       </c>
       <c r="E124" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F124" s="11" t="inlineStr">
@@ -7307,22 +7354,22 @@
       </c>
       <c r="G124" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about the availability of the grey sofa, which aligns with the PRODUCT_AVAILABILITY intent.</t>
+          <t>The user's inquiry is about the availability of the grey sofa, which directly aligns with the intent of checking product availability.</t>
         </is>
       </c>
       <c r="H124" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I124" s="11" t="inlineStr">
         <is>
-          <t>The grey sofa is currently out of stock but may be restocked soon.</t>
+          <t>The grey L-shaped sofa is currently out of stock but may be restocked soon.</t>
         </is>
       </c>
       <c r="J124" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the grey sofa, which directly aligns with the STOCK_STATUS sub-intent as it seeks to confirm if the product is currently in stock.</t>
+          <t>The user's inquiry about the availability of the grey sofa directly aligns with the STOCK_STATUS sub intent, as they are checking if the product is currently in stock.</t>
         </is>
       </c>
       <c r="K124" s="11" t="inlineStr">
@@ -7357,7 +7404,7 @@
       </c>
       <c r="E125" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F125" s="11" t="inlineStr">
@@ -7372,7 +7419,7 @@
       </c>
       <c r="H125" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I125" s="11" t="inlineStr">
@@ -7382,7 +7429,7 @@
       </c>
       <c r="J125" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the current availability of the rosewood coffee table, which directly relates to the stock status of the product.</t>
+          <t>The user is inquiring about the current availability of the rosewood coffee table, which directly aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K125" s="11" t="inlineStr">
@@ -7417,32 +7464,32 @@
       </c>
       <c r="E126" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F126" s="11" t="inlineStr">
         <is>
-          <t>Yes, you can order the vintage desk now.</t>
+          <t>You can order the vintage desk now.</t>
         </is>
       </c>
       <c r="G126" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the ability to place an order for the vintage desk, which falls under the intent of checking product availability.</t>
+          <t>The user's inquiry is about the ability to order the vintage desk, which directly relates to the availability of the product.</t>
         </is>
       </c>
       <c r="H126" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I126" s="11" t="inlineStr">
         <is>
-          <t>Yes, you can order the vintage desk now.</t>
+          <t>The vintage desk is available for purchase.</t>
         </is>
       </c>
       <c r="J126" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the ability to order the vintage desk, which indicates they are checking on its availability for purchase. This aligns with the STOCK_STATUS sub-intent as it directly relates to the availability of the product.</t>
+          <t>The user's last message inquires about the ability to order the vintage desk, indicating a desire to confirm its availability for purchase, which aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K126" s="11" t="inlineStr">
@@ -7477,12 +7524,12 @@
       </c>
       <c r="E127" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F127" s="11" t="inlineStr">
         <is>
-          <t>Yes, the walnut table is available.</t>
+          <t>Yes, the walnut table is currently available.</t>
         </is>
       </c>
       <c r="G127" s="11" t="inlineStr">
@@ -7492,7 +7539,7 @@
       </c>
       <c r="H127" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 1.0</t>
         </is>
       </c>
       <c r="I127" s="11" t="inlineStr">
@@ -7502,7 +7549,7 @@
       </c>
       <c r="J127" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the walnut table, which directly aligns with the STOCK_STATUS sub intent as it seeks to confirm if the product is in stock.</t>
+          <t>The user is inquiring about the availability of the walnut table, which directly aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K127" s="11" t="inlineStr">
@@ -7537,32 +7584,32 @@
       </c>
       <c r="E128" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95, OTHERS - 0.05</t>
         </is>
       </c>
       <c r="F128" s="11" t="inlineStr">
         <is>
-          <t>We do not have a specific date for restocking the blue armchair at this time, but please check back later for updates.</t>
+          <t>We do not have a specific date for when the blue armchair will be restocked, but we will notify you once it is available again.</t>
         </is>
       </c>
       <c r="G128" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the restocking of a specific product (the blue armchair), which falls under the intent of checking product availability.</t>
+          <t>The user's inquiry is specifically about the restocking of the blue armchair, which falls under the intent of checking product availability.</t>
         </is>
       </c>
       <c r="H128" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I128" s="11" t="inlineStr">
         <is>
-          <t>The blue armchair is currently out of stock, but we will notify you when it is restocked.</t>
+          <t>The blue armchair is currently available for purchase.</t>
         </is>
       </c>
       <c r="J128" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the restocking of the blue variant of the armchair, which indicates a desire to know its availability, thus falling under the STOCK_STATUS sub-intent.</t>
+          <t>The user's inquiry about restocking the blue armchair indicates a desire to know if the product is currently available or will be available soon, which aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K128" s="11" t="inlineStr">
@@ -7597,22 +7644,22 @@
       </c>
       <c r="E129" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F129" s="11" t="inlineStr">
         <is>
-          <t>We can assist you with the process for your damaged furniture. Please provide us with details about the damage.</t>
+          <t>We will initiate a return process for your damaged item.</t>
         </is>
       </c>
       <c r="G129" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically addresses the issue of damaged furniture, which falls under the category of damages during delivery. The bot's likely response aims to assist the user in addressing this damage.</t>
+          <t>The user's message inquires about the next steps regarding their damaged furniture, which aligns with the intent of addressing product damage during shipping.</t>
         </is>
       </c>
       <c r="H129" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.85, REPLACEMENT_REQUEST - 0.75</t>
         </is>
       </c>
       <c r="I129" s="11" t="inlineStr">
@@ -7622,7 +7669,7 @@
       </c>
       <c r="J129" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about what to do regarding their damaged furniture indicates a request for guidance on returning the item, which aligns with the DAMAGED_RETURN_REQUEST sub-intent.</t>
+          <t>The user's last message indicates they are seeking guidance on how to handle their damaged furniture, which aligns with requesting a return or replacement for a damaged item. The bot's response suggests initiating a return process, which fits the DAMAGED_RETURN_REQUEST sub intent. Additionally, the context of the conversation also suggests a potential REPLACEMENT_REQUEST due to the nature of the inquiry about a broken item.</t>
         </is>
       </c>
       <c r="K129" s="11" t="inlineStr">
@@ -7657,7 +7704,7 @@
       </c>
       <c r="E130" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F130" s="11" t="inlineStr">
@@ -7667,12 +7714,12 @@
       </c>
       <c r="G130" s="11" t="inlineStr">
         <is>
-          <t>The user's message clearly indicates that their order arrived damaged, which falls under the DAMAGES intent as it specifically mentions a product that was broken upon arrival.</t>
+          <t>The user's last message indicates that their order was broken upon arrival, which directly relates to product damage during shipping. Therefore, the intent is classified as DAMAGES.</t>
         </is>
       </c>
       <c r="H130" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_DURING_SHIPPING</t>
+          <t>DAMAGED_DURING_SHIPPING - 0.9, DAMAGED_RETURN_REQUEST - 0.8</t>
         </is>
       </c>
       <c r="I130" s="11" t="inlineStr">
@@ -7682,7 +7729,7 @@
       </c>
       <c r="J130" s="11" t="inlineStr">
         <is>
-          <t>The user's message indicates that the item was damaged upon arrival, which aligns with the DAMAGED_DURING_SHIPPING sub-intent. The bot's response suggests a return process for the damaged item.</t>
+          <t>The user's last message indicates that the item was damaged upon arrival, which aligns with the DAMAGED_DURING_SHIPPING intent. Additionally, the bot's response suggests a return process, which relates to the DAMAGED_RETURN_REQUEST intent as well.</t>
         </is>
       </c>
       <c r="K130" s="11" t="inlineStr">
@@ -7717,22 +7764,22 @@
       </c>
       <c r="E131" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F131" s="11" t="inlineStr">
         <is>
-          <t>To return a damaged shipment, please follow these steps: 1. Contact our customer service to initiate the return. 2. Pack the item securely in its original packaging. 3. Use the return label provided in your order confirmation email. 4. Drop off the package at the nearest shipping location. If you have any questions, feel free to reach out.</t>
+          <t>We apologize for the inconvenience. Please follow these steps to return your damaged item.</t>
         </is>
       </c>
       <c r="G131" s="11" t="inlineStr">
         <is>
-          <t>The user's message specifically inquires about the process for returning a damaged shipment, which falls under the DAMAGES intent as it relates to returning an item that arrived damaged.</t>
+          <t>The user's last message explicitly inquires about the process for returning a damaged shipment, which falls under the category of damages related to product shipping issues.</t>
         </is>
       </c>
       <c r="H131" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.95</t>
         </is>
       </c>
       <c r="I131" s="11" t="inlineStr">
@@ -7742,7 +7789,7 @@
       </c>
       <c r="J131" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the process for returning a damaged shipment, which indicates a request to return an item due to damage. This aligns with the DAMAGED_RETURN_REQUEST sub-intent.</t>
+          <t>The user's last message explicitly asks about the process for returning a damaged shipment, indicating a request to return an item due to damage, which aligns with the DAMAGED_RETURN_REQUEST sub intent.</t>
         </is>
       </c>
       <c r="K131" s="11" t="inlineStr">
@@ -7777,22 +7824,22 @@
       </c>
       <c r="E132" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F132" s="11" t="inlineStr">
         <is>
-          <t>You can return your recent purchase by following the steps outlined in our return policy. Please let me know if you need further assistance.</t>
+          <t>Please follow our return policy guidelines for your undamaged item.</t>
         </is>
       </c>
       <c r="G132" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the process to return a recent purchase, which directly aligns with the RETURNS intent.</t>
+          <t>The user's message explicitly inquires about the process for returning a recent purchase, which aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H132" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.95, QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I132" s="11" t="inlineStr">
@@ -7802,17 +7849,17 @@
       </c>
       <c r="J132" s="11" t="inlineStr">
         <is>
-          <t>The user is asking how to return their recent purchase, which indicates they are looking to initiate the return process. This aligns with the RETURNS_PROCESSING sub intent.</t>
+          <t>The user is asking how to return a recent purchase, which indicates they are initiating the return process. The bot's response suggests following return policy guidelines, aligning with the RETURNS_PROCESSING intent. However, it also touches on general queries about the return process, hence the QUERIES intent is also relevant.</t>
         </is>
       </c>
       <c r="K132" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L132" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -7837,32 +7884,32 @@
       </c>
       <c r="E133" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F133" s="11" t="inlineStr">
         <is>
-          <t>You can return unused items within our return policy. Please let me know if you need further assistance with the process.</t>
+          <t>You can return undamaged items within our policy period.</t>
         </is>
       </c>
       <c r="G133" s="11" t="inlineStr">
         <is>
-          <t>The user is explicitly asking for guidance on returning an unused item, which falls under the RETURNS intent as it involves the process of returning a product that is not damaged.</t>
+          <t>The user is inquiring about the process for returning an unused item, which directly relates to the intent of returning products that are delivered and not damaged.</t>
         </is>
       </c>
       <c r="H133" s="11" t="inlineStr">
         <is>
-          <t>RETURN_POLICY</t>
+          <t>RETURN_POLICY - 0.95</t>
         </is>
       </c>
       <c r="I133" s="11" t="inlineStr">
         <is>
-          <t>You can return unused items as per our return policy. Please let me know if you need further assistance.</t>
+          <t>You can return undamaged items within our policy period.</t>
         </is>
       </c>
       <c r="J133" s="11" t="inlineStr">
         <is>
-          <t>The user's last message specifically asks for guidance on returning an unused item, which falls under inquiries about the return policy and conditions for return.</t>
+          <t>The user's last message explicitly asks for guidance on returning an unused item, which relates directly to the return policy. The bot's response confirms the return policy regarding undamaged items, aligning with the user's inquiry about the return process.</t>
         </is>
       </c>
       <c r="K133" s="11" t="inlineStr">
@@ -7897,7 +7944,7 @@
       </c>
       <c r="E134" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.85</t>
         </is>
       </c>
       <c r="F134" s="11" t="inlineStr">
@@ -7907,22 +7954,22 @@
       </c>
       <c r="G134" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the requirements to apply for a trade account, which falls under the TRADE_APPLICATION intent as it relates to inquiries about setting up a trade account.</t>
+          <t>The user's inquiry is specifically about the requirements for applying for a trade account, which falls under the TRADE_APPLICATION intent.</t>
         </is>
       </c>
       <c r="H134" s="11" t="inlineStr">
         <is>
-          <t>TRADE_ACCOUNT</t>
+          <t>TRADE_ACCOUNT - 0.95</t>
         </is>
       </c>
       <c r="I134" s="11" t="inlineStr">
         <is>
-          <t>To apply for a trade account, you will need to provide some basic information such as your business details and contact information. Please let me know if you need assistance with the application process.</t>
+          <t>To apply for a trade account, you will need to provide some basic information such as your business details and contact information. Please let me know if you need a specific list of requirements.</t>
         </is>
       </c>
       <c r="J134" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically asks about the requirements to apply for a trade account, which falls under the TRADE_ACCOUNT sub-intent as it relates to setting up a new trade account.</t>
+          <t>The user's inquiry about what is needed to apply for a trade account directly relates to the TRADE_ACCOUNT sub intent, as it involves setting up a new trade account.</t>
         </is>
       </c>
       <c r="K134" s="11" t="inlineStr">
@@ -7957,17 +8004,17 @@
       </c>
       <c r="E135" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.95</t>
         </is>
       </c>
       <c r="F135" s="11" t="inlineStr">
         <is>
-          <t>You're welcome! If you need any further assistance, feel free to ask.</t>
+          <t>You're welcome! If you need anything else, feel free to ask.</t>
         </is>
       </c>
       <c r="G135" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses gratitude, which aligns with the BANTER intent, as it involves casual conversation and friendly comments.</t>
+          <t>The user's message expresses gratitude, which aligns with casual conversation and friendly comments, thus classifying it as BANTER.</t>
         </is>
       </c>
       <c r="H135" s="11" t="inlineStr">
@@ -8019,7 +8066,7 @@
       </c>
       <c r="E136" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95, RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F136" s="11" t="inlineStr">
@@ -8029,7 +8076,7 @@
       </c>
       <c r="G136" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their order and is considering cancellation if it does not arrive soon, which aligns with the ORDER_STATUS intent.</t>
+          <t>The user is inquiring about the status of their order and is considering cancellation due to potential delays, which aligns with the ORDER_STATUS intent.</t>
         </is>
       </c>
       <c r="H136" s="11" t="inlineStr">
@@ -8079,12 +8126,12 @@
       </c>
       <c r="E137" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.85, DAMAGES - 0.75</t>
         </is>
       </c>
       <c r="F137" s="11" t="inlineStr">
         <is>
-          <t>Your order is expected to arrive soon, and we are taking measures to ensure it arrives without damage.</t>
+          <t>Your order is expected to arrive soon. We are working to ensure it arrives without damage.</t>
         </is>
       </c>
       <c r="G137" s="11" t="inlineStr">
@@ -8109,12 +8156,12 @@
       </c>
       <c r="K137" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L137" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8188,7 @@
       </c>
       <c r="E138" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95, RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F138" s="11" t="inlineStr">
@@ -8166,17 +8213,17 @@
       </c>
       <c r="J138" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry primarily focuses on the expected arrival of their delayed package, which directly relates to shipping updates. The mention of a potential return is contingent upon the shipping status, reinforcing the primary intent of seeking shipping information.</t>
+          <t>The user's inquiry primarily focuses on the expected arrival of their delayed package, which directly relates to shipping updates. The mention of a potential return is secondary to the main question about shipping status.</t>
         </is>
       </c>
       <c r="K138" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L138" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8201,42 +8248,42 @@
       </c>
       <c r="E139" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F139" s="11" t="inlineStr">
         <is>
-          <t>Your order is set to arrive by 11/11/2024.</t>
+          <t>Your order is set to arrive by 11/11/2024</t>
         </is>
       </c>
       <c r="G139" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about confirming the delivery date of their order, which falls under the intent of ORDER_STATUS.</t>
+          <t>The user's inquiry is specifically about confirming the delivery date of their order, which falls under the ORDER_STATUS intent as it relates to the status of an order that has already been placed.</t>
         </is>
       </c>
       <c r="H139" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95, ORDER_CONFIRMATION - 0.85</t>
         </is>
       </c>
       <c r="I139" s="11" t="inlineStr">
         <is>
-          <t>Your order is set to arrive by 11/11/2024.</t>
+          <t>Your order is set to arrive by 11/11/2024</t>
         </is>
       </c>
       <c r="J139" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the delivery date of their order, which falls under the category of shipping updates as they are seeking confirmation on when their product will be delivered.</t>
+          <t>The user is inquiring about the delivery date of their order, which falls under the SHIPPING_UPDATES sub intent. Additionally, the request for confirmation of the delivery date can also relate to ORDER_CONFIRMATION, as it seeks to verify the status of the order.</t>
         </is>
       </c>
       <c r="K139" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L139" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8261,32 +8308,32 @@
       </c>
       <c r="E140" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F140" s="11" t="inlineStr">
         <is>
-          <t>Your second item is on its way. It should arrive shortly.</t>
+          <t>Your second item is on the way. It should arrive shortly.</t>
         </is>
       </c>
       <c r="G140" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the status of their second item from an order, specifically asking when they can expect it to arrive, which falls under the ORDER_STATUS intent.</t>
+          <t>The user is inquiring about the status of their second item from an order, which aligns with the intent of checking the order status.</t>
         </is>
       </c>
       <c r="H140" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I140" s="11" t="inlineStr">
         <is>
-          <t>Your second item is on its way. You can track it using the order ID 294959.</t>
+          <t>Your second item is on its way. You can track it using your order ID: 294959.</t>
         </is>
       </c>
       <c r="J140" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the expected arrival of their second item, which indicates a request for shipping updates regarding an order that has already been placed.</t>
+          <t>The user is inquiring about the status of their second item from an order, which directly relates to shipping updates for an order that has already been placed.</t>
         </is>
       </c>
       <c r="K140" s="11" t="inlineStr">
@@ -8321,32 +8368,32 @@
       </c>
       <c r="E141" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.85, OTHERS - 0.15</t>
         </is>
       </c>
       <c r="F141" s="11" t="inlineStr">
         <is>
-          <t>Currently, we do not have any promotions available for the desk restock, but please check back closer to the date for any updates.</t>
+          <t>Currently, we do not have any promotions available for the desk restock.</t>
         </is>
       </c>
       <c r="G141" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about promotions related to the restocking of a specific product (the desk), which falls under the intent of checking product availability and associated promotions.</t>
+          <t>The user's inquiry about promotions does not fit into any specific intent category related to order status, product availability, damages, returns, or trade applications. It is a general question about potential discounts, which falls under 'OTHERS'.</t>
         </is>
       </c>
       <c r="H141" s="11" t="inlineStr">
         <is>
-          <t>DISCOUNTS_AND_PROMOTIONS</t>
+          <t>DISCOUNTS_AND_PROMOTIONS - 0.85, STOCK_STATUS - 0.75</t>
         </is>
       </c>
       <c r="I141" s="11" t="inlineStr">
         <is>
-          <t>Currently, we do not have any specific promotions available for the desk restock, but please check back closer to mid November for any updates.</t>
+          <t>The desk is expected to be back in stock on mid November.</t>
         </is>
       </c>
       <c r="J141" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about promotions related to the desk when it becomes available again, which falls under the DISCOUNTS_AND_PROMOTIONS sub-intent.</t>
+          <t>The user is inquiring about promotions related to the desk restocking, which aligns with the DISCOUNTS_AND_PROMOTIONS intent. Additionally, the previous message indicates a concern about stock availability, which relates to the STOCK_STATUS intent. Both intents are relevant to the user's inquiry.</t>
         </is>
       </c>
       <c r="K141" s="11" t="inlineStr">
@@ -8381,7 +8428,7 @@
       </c>
       <c r="E142" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F142" s="11" t="inlineStr">
@@ -8396,17 +8443,17 @@
       </c>
       <c r="H142" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 1.0</t>
         </is>
       </c>
       <c r="I142" s="11" t="inlineStr">
         <is>
-          <t>Yes, we have oak dining tables available for purchase.</t>
+          <t>The oak dining table is currently in stock.</t>
         </is>
       </c>
       <c r="J142" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring specifically about the availability of an oak dining table, which directly relates to checking if the product is currently in stock.</t>
+          <t>The user's inquiry is specifically about the availability of an oak dining table, which directly aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K142" s="11" t="inlineStr">
@@ -8441,32 +8488,32 @@
       </c>
       <c r="E143" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F143" s="11" t="inlineStr">
         <is>
-          <t>Yes, the chair is currently in stock.</t>
+          <t>Yes, the chair is currently available for purchase.</t>
         </is>
       </c>
       <c r="G143" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically asks about the stock status of the chair, which aligns with the intent of checking product availability.</t>
+          <t>The user's inquiry about whether the chair is in stock directly relates to the availability of the product, which falls under the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H143" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I143" s="11" t="inlineStr">
         <is>
-          <t>Yes, the chair is currently in stock.</t>
+          <t>Yes, the chair is currently available for purchase.</t>
         </is>
       </c>
       <c r="J143" s="11" t="inlineStr">
         <is>
-          <t>The user is directly inquiring about the stock status of the chair, which aligns with the STOCK_STATUS sub-intent.</t>
+          <t>The user's last message directly inquires about the stock status of the chair, which aligns with the STOCK_STATUS sub intent focused on confirming product availability.</t>
         </is>
       </c>
       <c r="K143" s="11" t="inlineStr">
@@ -8501,42 +8548,42 @@
       </c>
       <c r="E144" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.9</t>
         </is>
       </c>
       <c r="F144" s="11" t="inlineStr">
         <is>
-          <t>Yes, you can purchase the lamp. Please let me know if you need assistance with the order process.</t>
+          <t>Yes, you can purchase the lamp.</t>
         </is>
       </c>
       <c r="G144" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the ability to purchase the lamp, which indicates a desire to order a product and checks its availability.</t>
+          <t>The user is inquiring about the ability to purchase the lamp, which indicates a desire to know if the product is available for sale. This aligns with the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H144" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95, DISCOUNTS_AND_PROMOTIONS - 0.85</t>
         </is>
       </c>
       <c r="I144" s="11" t="inlineStr">
         <is>
-          <t>Yes, you can purchase the lamp as it is currently available.</t>
+          <t>The lamp is available but is not currently discounted.</t>
         </is>
       </c>
       <c r="J144" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the ability to purchase the lamp, which indicates they are checking its availability for ordering. This aligns with the STOCK_STATUS sub-intent.</t>
+          <t>The user's last message inquires about purchasing the lamp, which implies they are checking its availability (STOCK_STATUS). Additionally, the previous message also asked about discounts, indicating interest in promotions (DISCOUNTS_AND_PROMOTIONS).</t>
         </is>
       </c>
       <c r="K144" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L144" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8608,7 @@
       </c>
       <c r="E145" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F145" s="11" t="inlineStr">
@@ -8571,22 +8618,22 @@
       </c>
       <c r="G145" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about the availability of the couch, which aligns with the PRODUCT_AVAILABILITY intent.</t>
+          <t>The user's inquiry about whether the couch is back in stock directly relates to the availability of the product, which falls under the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H145" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 1.0</t>
         </is>
       </c>
       <c r="I145" s="11" t="inlineStr">
         <is>
-          <t>The couch is currently back in stock.</t>
+          <t>The couch is back in stock.</t>
         </is>
       </c>
       <c r="J145" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the couch, which directly relates to checking if it is currently in stock.</t>
+          <t>The user is inquiring about the availability of the couch, which directly aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K145" s="11" t="inlineStr">
@@ -8621,7 +8668,7 @@
       </c>
       <c r="E146" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95, ORDER_STATUS - 0.75</t>
         </is>
       </c>
       <c r="F146" s="11" t="inlineStr">
@@ -8646,17 +8693,17 @@
       </c>
       <c r="J146" s="11" t="inlineStr">
         <is>
-          <t>The user reported that their order arrived damaged after shipping, which aligns with the DAMAGED_DURING_SHIPPING sub-intent.</t>
+          <t>The user reported that their order arrived damaged after a delay in shipping, which indicates that the damage occurred during the shipping process.</t>
         </is>
       </c>
       <c r="K146" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L146" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8683,42 +8730,42 @@
       </c>
       <c r="E147" s="11" t="inlineStr">
         <is>
+          <t>DAMAGES - 0.95</t>
+        </is>
+      </c>
+      <c r="F147" s="11" t="inlineStr">
+        <is>
+          <t>We’ll process the return for your damaged item.</t>
+        </is>
+      </c>
+      <c r="G147" s="11" t="inlineStr">
+        <is>
+          <t>The user's message clearly indicates a need for assistance regarding a damaged product, which falls under the DAMAGES intent as it relates to product damage during shipping.</t>
+        </is>
+      </c>
+      <c r="H147" s="11" t="inlineStr">
+        <is>
+          <t>REPLACEMENT_REQUEST - 0.85, DAMAGED_RETURN_REQUEST - 0.75</t>
+        </is>
+      </c>
+      <c r="I147" s="11" t="inlineStr">
+        <is>
+          <t>We’ll process the return for your damaged item.</t>
+        </is>
+      </c>
+      <c r="J147" s="11" t="inlineStr">
+        <is>
+          <t>The user's last message indicates they need assistance with a damaged product, which aligns with the need for a replacement or return. The bot's response suggests processing a return, which fits both the REPLACEMENT_REQUEST and DAMAGED_RETURN_REQUEST intents.</t>
+        </is>
+      </c>
+      <c r="K147" s="11" t="inlineStr">
+        <is>
           <t>DAMAGES</t>
         </is>
       </c>
-      <c r="F147" s="11" t="inlineStr">
-        <is>
-          <t>We can assist you with your damaged product. Would you like to proceed with a return or a replacement?</t>
-        </is>
-      </c>
-      <c r="G147" s="11" t="inlineStr">
-        <is>
-          <t>The user's message clearly indicates a need for assistance regarding a damaged product, which falls under the DAMAGES intent as it relates to product damage during shipping.</t>
-        </is>
-      </c>
-      <c r="H147" s="11" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
-      <c r="I147" s="11" t="inlineStr">
-        <is>
-          <t>Can you please provide more details about the damage to your product? We want to assist you effectively.</t>
-        </is>
-      </c>
-      <c r="J147" s="11" t="inlineStr">
-        <is>
-          <t>The user's request for help with a damaged product is vague and does not specify whether they are seeking a return, replacement, or any other specific action. Therefore, it falls under 'OTHERS' as it does not clearly fit into any of the defined sub-intents.</t>
-        </is>
-      </c>
-      <c r="K147" s="11" t="inlineStr">
-        <is>
-          <t>OTHERS</t>
-        </is>
-      </c>
       <c r="L147" s="11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -8745,22 +8792,22 @@
       </c>
       <c r="E148" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95, RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F148" s="11" t="inlineStr">
         <is>
-          <t>To proceed with your damaged shipment, please follow the return instructions provided in our previous message.</t>
+          <t>Please follow our guidelines to return your damaged item.</t>
         </is>
       </c>
       <c r="G148" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the next steps to take regarding a damaged shipment, which falls under the category of damages as they are seeking guidance on how to handle the situation.</t>
+          <t>The user is inquiring about the next steps to take regarding a damaged shipment, which falls under the intent of DAMAGES as it relates to handling a damaged product.</t>
         </is>
       </c>
       <c r="H148" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.85, REPLACEMENT_REQUEST - 0.75</t>
         </is>
       </c>
       <c r="I148" s="11" t="inlineStr">
@@ -8770,7 +8817,7 @@
       </c>
       <c r="J148" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the next steps after reporting that their shipment was damaged, indicating they are looking to return the item due to the damage.</t>
+          <t>The user is inquiring about the next steps after reporting a damaged shipment, indicating a need to return the item or possibly request a replacement. The bot's response aligns with the user's intent to return the damaged item, thus classifying it under DAMAGED_RETURN_REQUEST. Additionally, the mention of replacement in the user's initial message suggests a potential interest in REPLACEMENT_REQUEST as well.</t>
         </is>
       </c>
       <c r="K148" s="11" t="inlineStr">
@@ -8807,7 +8854,7 @@
       </c>
       <c r="E149" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F149" s="11" t="inlineStr">
@@ -8817,12 +8864,12 @@
       </c>
       <c r="G149" s="11" t="inlineStr">
         <is>
-          <t>The user is reporting that their item is scratched, which indicates a concern about product damage. The bot's response is aligned with handling issues related to damages during shipping.</t>
+          <t>The user's message indicates that the item has a scratch, which falls under the category of product damage. The bot's response is appropriate as it addresses the need to return a damaged item.</t>
         </is>
       </c>
       <c r="H149" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.85, CLAIMS_AND_REFUND - 0.75</t>
         </is>
       </c>
       <c r="I149" s="11" t="inlineStr">
@@ -8832,17 +8879,17 @@
       </c>
       <c r="J149" s="11" t="inlineStr">
         <is>
-          <t>The user reported that their item is scratched, which indicates that the item is damaged. The bot's response suggests assistance with returning the damaged item, aligning with the DAMAGED_RETURN_REQUEST sub-intent.</t>
+          <t>The user reported that their item is scratched, which indicates it is damaged. The bot's response suggests assistance with returning the damaged item, aligning with the DAMAGED_RETURN_REQUEST intent. Additionally, there is a possibility of a CLAIMS_AND_REFUND intent due to the nature of the damage reported.</t>
         </is>
       </c>
       <c r="K149" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L149" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8869,7 +8916,7 @@
       </c>
       <c r="E150" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95, RETURNS - 0.85</t>
         </is>
       </c>
       <c r="F150" s="11" t="inlineStr">
@@ -8879,12 +8926,12 @@
       </c>
       <c r="G150" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about returning a broken product and expects a refund, which aligns with the intent of handling product damage during shipping.</t>
+          <t>The user's message clearly indicates that they are inquiring about returning a broken product and expecting a refund, which aligns with the intent of DAMAGES as it involves a damaged item.</t>
         </is>
       </c>
       <c r="H150" s="11" t="inlineStr">
         <is>
-          <t>DAMAGED_RETURN_REQUEST</t>
+          <t>DAMAGED_RETURN_REQUEST - 0.95, CLAIMS_AND_REFUND - 0.85</t>
         </is>
       </c>
       <c r="I150" s="11" t="inlineStr">
@@ -8894,17 +8941,17 @@
       </c>
       <c r="J150" s="11" t="inlineStr">
         <is>
-          <t>The user is requesting to return a broken product and is expecting a refund, which aligns with the DAMAGED_RETURN_REQUEST sub-intent.</t>
+          <t>The user is requesting to return a broken product and is expecting a refund, which aligns with both the DAMAGED_RETURN_REQUEST and CLAIMS_AND_REFUND intents.</t>
         </is>
       </c>
       <c r="K150" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L150" s="11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -8929,42 +8976,42 @@
       </c>
       <c r="E151" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F151" s="11" t="inlineStr">
         <is>
-          <t>To return an item, please follow the return instructions provided on our website or contact our support team for assistance.</t>
+          <t>To return an item, please follow the return process outlined on our website, or let me know if you need further assistance.</t>
         </is>
       </c>
       <c r="G151" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the process for returning an item, which clearly falls under the intent of RETURNS as they are seeking guidance on how to return a product.</t>
+          <t>The user is inquiring about the process to return an item, which directly aligns with the RETURNS intent as they are seeking guidance on returning a product.</t>
         </is>
       </c>
       <c r="H151" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.95, QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I151" s="11" t="inlineStr">
         <is>
-          <t>To return the item, please follow the return process outlined in our guidelines. Let me know if you need any further assistance.</t>
+          <t>To return the item, please follow our return process outlined on our website. If you have any specific questions, feel free to ask!</t>
         </is>
       </c>
       <c r="J151" s="11" t="inlineStr">
         <is>
-          <t>The user is asking for guidance on how to return the item, which indicates they are initiating the return process.</t>
+          <t>The user is asking for guidance on how to return an item, which indicates a request to initiate the return process. This aligns with the RETURNS_PROCESSING intent. However, since the user is also seeking general information on the return procedure, it also aligns with the QUERIES intent.</t>
         </is>
       </c>
       <c r="K151" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L151" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -8989,7 +9036,7 @@
       </c>
       <c r="E152" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F152" s="11" t="inlineStr">
@@ -8999,12 +9046,12 @@
       </c>
       <c r="G152" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the return process, indicating a desire to return an item, which falls under the RETURNS intent.</t>
+          <t>The user is inquiring about the return process, which indicates a request for assistance with returning a product. This aligns with the RETURNS intent.</t>
         </is>
       </c>
       <c r="H152" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>RETURNS_PROCESSING - 0.95, QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I152" s="11" t="inlineStr">
@@ -9014,17 +9061,17 @@
       </c>
       <c r="J152" s="11" t="inlineStr">
         <is>
-          <t>The user is asking for assistance with the return process, indicating a desire to initiate a return, which falls under RETURNS_PROCESSING.</t>
+          <t>The user's last message indicates a request for assistance with the return process, which aligns with the RETURNS_PROCESSING intent. However, it could also be interpreted as a general inquiry about the return process, hence the QUERIES intent is also relevant.</t>
         </is>
       </c>
       <c r="K152" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L152" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -9049,7 +9096,7 @@
       </c>
       <c r="E153" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.9, OTHERS - 0.1</t>
         </is>
       </c>
       <c r="F153" s="11" t="inlineStr">
@@ -9064,17 +9111,17 @@
       </c>
       <c r="H153" s="11" t="inlineStr">
         <is>
-          <t>REFUND</t>
+          <t>REFUND - 0.9, QUERIES - 0.7</t>
         </is>
       </c>
       <c r="I153" s="11" t="inlineStr">
         <is>
-          <t>The refund will be processed once we receive your returned item. Typically, it takes 5-7 business days after processing.</t>
+          <t>The refund will typically take 5-7 business days to process after we receive the returned item.</t>
         </is>
       </c>
       <c r="J153" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring specifically about the duration of the refund process, which indicates a focus on the refund aspect rather than the return process itself.</t>
+          <t>The user's inquiry about the duration of the refund process indicates a focus on the status of a refund, which aligns with the REFUND sub intent. Additionally, the question could also be seen as a general inquiry about the return procedure, fitting the QUERIES sub intent.</t>
         </is>
       </c>
       <c r="K153" s="11" t="inlineStr">
@@ -9109,12 +9156,12 @@
       </c>
       <c r="E154" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F154" s="11" t="inlineStr">
         <is>
-          <t>You can proceed with the return by following the instructions provided in our return policy. Please let me know if you need any further assistance.</t>
+          <t>To proceed with the return, please follow the instructions provided in our return policy.</t>
         </is>
       </c>
       <c r="G154" s="11" t="inlineStr">
@@ -9124,17 +9171,17 @@
       </c>
       <c r="H154" s="11" t="inlineStr">
         <is>
-          <t>RETURN_POLICY</t>
+          <t>RETURN_POLICY - 0.85</t>
         </is>
       </c>
       <c r="I154" s="11" t="inlineStr">
         <is>
-          <t>You can proceed with the return by following our return policy guidelines. Please let me know if you need further assistance.</t>
+          <t>To proceed with the return, please refer to our return policy for the necessary steps.</t>
         </is>
       </c>
       <c r="J154" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about how to proceed with the return, which indicates a need for information regarding the return policy rather than initiating a return or requesting a refund.</t>
+          <t>The user's last message explicitly asks about how to proceed with the return, which falls under inquiries about the return policy.</t>
         </is>
       </c>
       <c r="K154" s="11" t="inlineStr">
@@ -9169,7 +9216,7 @@
       </c>
       <c r="E155" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.9</t>
         </is>
       </c>
       <c r="F155" s="11" t="inlineStr">
@@ -9179,12 +9226,12 @@
       </c>
       <c r="G155" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about whether a trade account is offered, which aligns with the intent of TRADE_APPLICATION as it relates to inquiries about trade accounts.</t>
+          <t>The user's inquiry is specifically about the availability of a trade account, which falls under the intent of TRADE_APPLICATION as it relates to inquiries about trade accounts.</t>
         </is>
       </c>
       <c r="H155" s="11" t="inlineStr">
         <is>
-          <t>TRADE_ACCOUNT</t>
+          <t>TRADE_ACCOUNT - 0.85, DISCOUNTS_AND_PRICING - 0.75</t>
         </is>
       </c>
       <c r="I155" s="11" t="inlineStr">
@@ -9194,17 +9241,17 @@
       </c>
       <c r="J155" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about whether a trade account is offered indicates a request for information related to setting up a new trade account, which falls under the TRADE_ACCOUNT sub-intent.</t>
+          <t>The user's inquiry about whether a trade account is offered indicates interest in setting up a trade account, which aligns with the TRADE_ACCOUNT sub intent. Additionally, the previous message mentioned interest in discounts for business clients, which relates to DISCOUNTS_AND_PRICING. Therefore, both intents are relevant.</t>
         </is>
       </c>
       <c r="K155" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L155" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9276,22 @@
       </c>
       <c r="E156" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.95</t>
         </is>
       </c>
       <c r="F156" s="11" t="inlineStr">
         <is>
-          <t>The trade program provides several advantages, including exclusive discounts, access to special products, and personalized support for your projects. Would you like to know how to apply?</t>
+          <t>Our trade program offers various benefits for design professionals.</t>
         </is>
       </c>
       <c r="G156" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about the trade program, which aligns with the intent of seeking information related to trade accounts and benefits.</t>
+          <t>The user's inquiry is specifically about the trade program, which aligns with the intent of TRADE_APPLICATION as it involves asking for more information about the program's benefits.</t>
         </is>
       </c>
       <c r="H156" s="11" t="inlineStr">
         <is>
-          <t>PROGRAM_BENEFITS_QUERIES</t>
+          <t>PROGRAM_BENEFITS_QUERIES - 0.95</t>
         </is>
       </c>
       <c r="I156" s="11" t="inlineStr">
@@ -9254,7 +9301,7 @@
       </c>
       <c r="J156" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically asks for more information about the benefits of the trade program, which aligns with the PROGRAM_BENEFITS_QUERIES sub-intent.</t>
+          <t>The user's inquiry specifically asks for more information about the benefits of the trade program, which aligns with the PROGRAM_BENEFITS_QUERIES sub intent.</t>
         </is>
       </c>
       <c r="K156" s="11" t="inlineStr">
@@ -9289,7 +9336,7 @@
       </c>
       <c r="E157" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.95, OTHERS - 0.60</t>
         </is>
       </c>
       <c r="F157" s="11" t="inlineStr">
@@ -9314,17 +9361,17 @@
       </c>
       <c r="J157" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about how to proceed indicates they are looking for guidance on setting up a trade account, which aligns with the TRADE_ACCOUNT sub-intent.</t>
+          <t>The user's inquiry about proceeding with the application indicates they are looking to set up a trade account, which aligns with the TRADE_ACCOUNT sub-intent.</t>
         </is>
       </c>
       <c r="K157" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L157" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9396,7 @@
       </c>
       <c r="E158" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.95</t>
         </is>
       </c>
       <c r="F158" s="11" t="inlineStr">
@@ -9359,22 +9406,22 @@
       </c>
       <c r="G158" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about how to update their information related to their trade account, which falls under the intent of TRADE_APPLICATION.</t>
+          <t>The user's inquiry is about updating information related to their trade account, which falls under the TRADE_APPLICATION intent.</t>
         </is>
       </c>
       <c r="H158" s="11" t="inlineStr">
         <is>
-          <t>TRADE_ACCOUNT</t>
+          <t>TRADE_ACCOUNT - 0.95</t>
         </is>
       </c>
       <c r="I158" s="11" t="inlineStr">
         <is>
-          <t>To update your information, please provide the details you would like to change.</t>
+          <t>Sure, please provide your new email to update your trade account.</t>
         </is>
       </c>
       <c r="J158" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about updating their information is directly related to managing their trade account, which falls under the TRADE_ACCOUNT sub-intent.</t>
+          <t>The user's inquiry about updating their information is directly related to managing their trade account, which falls under the TRADE_ACCOUNT sub intent.</t>
         </is>
       </c>
       <c r="K158" s="11" t="inlineStr">
@@ -9409,17 +9456,17 @@
       </c>
       <c r="E159" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.95</t>
         </is>
       </c>
       <c r="F159" s="11" t="inlineStr">
         <is>
-          <t>You're very welcome! It's always a pleasure to help.</t>
+          <t>Hello! Glad to be of service.</t>
         </is>
       </c>
       <c r="G159" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses gratitude, which aligns with the BANTER intent that handles casual conversation and expressions of thanks.</t>
+          <t>The user's message expresses gratitude, which aligns with casual conversation and friendly comments, thus classified as BANTER.</t>
         </is>
       </c>
       <c r="H159" s="11" t="inlineStr">
@@ -9469,7 +9516,7 @@
       </c>
       <c r="E160" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.95</t>
         </is>
       </c>
       <c r="F160" s="11" t="inlineStr">
@@ -9479,7 +9526,7 @@
       </c>
       <c r="G160" s="11" t="inlineStr">
         <is>
-          <t>The user's last message expresses gratitude, which aligns with the BANTER intent that handles casual conversation and expressions of thanks.</t>
+          <t>The user's last message expresses gratitude, which aligns with the intent of casual conversation and friendly comments, classified as BANTER.</t>
         </is>
       </c>
       <c r="H160" s="11" t="n"/>
@@ -9517,7 +9564,7 @@
       </c>
       <c r="E161" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.85</t>
         </is>
       </c>
       <c r="F161" s="11" t="inlineStr">
@@ -9527,7 +9574,7 @@
       </c>
       <c r="G161" s="11" t="inlineStr">
         <is>
-          <t>The user's last message expresses gratitude for the assistance received regarding their order status, which aligns with a friendly and casual conversation. The bot's response is a friendly acknowledgment, fitting the BANTER intent.</t>
+          <t>The user's last message expresses gratitude for the assistance received, which aligns with casual conversation and friendly comments, thus the intent is classified as BANTER.</t>
         </is>
       </c>
       <c r="H161" s="11" t="n"/>
@@ -9565,17 +9612,17 @@
       </c>
       <c r="E162" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.85, OTHERS - 0.75</t>
         </is>
       </c>
       <c r="F162" s="11" t="inlineStr">
         <is>
-          <t>You're very welcome! I'm glad I could assist you with your previous order. If you have any issues with your latest order, please don't hesitate to reach out. Thank you for your kind words!</t>
+          <t>Thank you for your appreciation! I'm glad to hear that you received your refund. If you encounter any issues with your latest order, please don't hesitate to reach out.</t>
         </is>
       </c>
       <c r="G162" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses gratitude and appreciation, which aligns with casual conversation and friendly comments, thus falling under the BANTER intent.</t>
+          <t>The user's message expresses gratitude and mentions a refund, but does not specifically inquire about an order status or product availability. It also indicates a hope for future communication if issues arise, which does not fit into the defined intents.</t>
         </is>
       </c>
       <c r="H162" s="11" t="n"/>
@@ -9583,12 +9630,12 @@
       <c r="J162" s="11" t="n"/>
       <c r="K162" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L162" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -9613,17 +9660,17 @@
       </c>
       <c r="E163" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.85</t>
         </is>
       </c>
       <c r="F163" s="11" t="inlineStr">
         <is>
-          <t>Thank you for your message, Rebekah. We can hold off on your order for now. Please let us know if you need any further assistance or if you decide to proceed with an alternative.</t>
+          <t>Thank you for your message. Yes, you can hold off on your order for now. Please let us know if you need any assistance in the future.</t>
         </is>
       </c>
       <c r="G163" s="11" t="inlineStr">
         <is>
-          <t>The user's message does not specifically inquire about an order status, product availability, or any of the other defined intents. Instead, it discusses holding off on an order and looking for alternatives, which does not fit neatly into any of the specified categories.</t>
+          <t>The user's message does not specifically inquire about an order status, product availability, damages, or returns. Instead, it expresses a desire to delay an order and check if that option is available, which falls outside the defined intents.</t>
         </is>
       </c>
       <c r="H163" s="11" t="n"/>
@@ -9661,32 +9708,32 @@
       </c>
       <c r="E164" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F164" s="11" t="inlineStr">
         <is>
-          <t>Yes, the mirror is available for immediate purchase.</t>
+          <t>The mirror is available for immediate purchase.</t>
         </is>
       </c>
       <c r="G164" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the mirror for immediate purchase, which falls under the intent of checking product availability.</t>
+          <t>The user's inquiry is specifically about the availability of the mirror for immediate purchase, which aligns with the intent of checking product availability.</t>
         </is>
       </c>
       <c r="H164" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95</t>
         </is>
       </c>
       <c r="I164" s="11" t="inlineStr">
         <is>
-          <t>Yes, the mirror is available for immediate purchase.</t>
+          <t>The mirror is available for immediate purchase.</t>
         </is>
       </c>
       <c r="J164" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the availability of the mirror for immediate purchase, which directly relates to checking if the product is currently in stock.</t>
+          <t>The user's inquiry directly asks about the availability of the mirror for immediate purchase, which aligns with the STOCK_STATUS sub intent.</t>
         </is>
       </c>
       <c r="K164" s="11" t="inlineStr">
@@ -9721,32 +9768,32 @@
       </c>
       <c r="E165" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.95</t>
         </is>
       </c>
       <c r="F165" s="11" t="inlineStr">
         <is>
-          <t>To replace your damaged sofa, please follow these steps: [insert steps for return and replacement process].</t>
+          <t>To replace your damaged sofa, you can follow these steps: please provide us with your order number and any photos of the damage, and we will assist you with the return process.</t>
         </is>
       </c>
       <c r="G165" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the steps to replace a damaged sofa, which falls under the category of damages as it relates to a product that arrived with damage.</t>
+          <t>The user's inquiry specifically asks for steps to replace a damaged sofa, which falls under the category of product damage during shipping. The bot's likely response addresses the process for handling the damaged item, confirming the intent as DAMAGES.</t>
         </is>
       </c>
       <c r="H165" s="11" t="inlineStr">
         <is>
-          <t>REPLACEMENT_REQUEST</t>
+          <t>REPLACEMENT_REQUEST - 0.85, DAMAGED_RETURN_REQUEST - 0.75</t>
         </is>
       </c>
       <c r="I165" s="11" t="inlineStr">
         <is>
-          <t>We can assist you with the replacement process for your damaged sofa. Please provide us with your order details.</t>
+          <t>We can assist you with the steps to replace your damaged sofa.</t>
         </is>
       </c>
       <c r="J165" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the steps to replace a damaged sofa, indicating a request for a replacement due to damage upon arrival.</t>
+          <t>The user is asking for steps to replace a damaged sofa, indicating a request for a replacement. Additionally, the context of the previous message suggests that the item was damaged during shipping, which aligns with both the REPLACEMENT_REQUEST and DAMAGED_RETURN_REQUEST intents.</t>
         </is>
       </c>
       <c r="K165" s="11" t="inlineStr">
@@ -9781,22 +9828,22 @@
       </c>
       <c r="E166" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95</t>
         </is>
       </c>
       <c r="F166" s="11" t="inlineStr">
         <is>
-          <t>Sure! To return an item, please follow these steps: [insert return process details].</t>
+          <t>Please follow our guidelines for returning undamaged items.</t>
         </is>
       </c>
       <c r="G166" s="11" t="inlineStr">
         <is>
-          <t>The user is asking for guidance on the return process, which directly relates to the intent of returning a product that has already been ordered.</t>
+          <t>The user is inquiring about the return process, which directly relates to the intent of returning a product. The bot's response is appropriate as it provides guidance on how to proceed with the return.</t>
         </is>
       </c>
       <c r="H166" s="11" t="inlineStr">
         <is>
-          <t>RETURNS_PROCESSING</t>
+          <t>QUERIES - 0.85</t>
         </is>
       </c>
       <c r="I166" s="11" t="inlineStr">
@@ -9806,17 +9853,17 @@
       </c>
       <c r="J166" s="11" t="inlineStr">
         <is>
-          <t>The user is asking for guidance on the return process, indicating they want to initiate a return, which falls under RETURNS_PROCESSING.</t>
+          <t>The user is asking for guidance on the return process without explicitly stating a desire to return a product, which aligns with the QUERIES intent.</t>
         </is>
       </c>
       <c r="K166" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L166" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -9841,32 +9888,32 @@
       </c>
       <c r="E167" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F167" s="11" t="inlineStr">
         <is>
-          <t>Your order is expected to arrive soon. We will provide you with an update on the exact arrival date shortly.</t>
+          <t>Your order should arrive shortly; we’ll update you if there’s any delay.</t>
         </is>
       </c>
       <c r="G167" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the arrival date of their order, which falls under the category of checking the status of an order that has already been placed.</t>
+          <t>The user's last message is inquiring about the arrival date of their order, which falls under the category of checking the status of an order that has already been placed.</t>
         </is>
       </c>
       <c r="H167" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I167" s="11" t="inlineStr">
         <is>
-          <t>Your order is on its way, and we expect it to arrive soon. We will keep you posted on any changes.</t>
+          <t>Your order should arrive shortly; we’ll update you if there’s any delay.</t>
         </is>
       </c>
       <c r="J167" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the arrival date of their order, which falls under the category of shipping updates as they are seeking information about the estimated delivery time.</t>
+          <t>The user is inquiring about the arrival date of their order, which falls under the category of shipping updates as it pertains to the status of an order that has already been placed.</t>
         </is>
       </c>
       <c r="K167" s="11" t="inlineStr">
@@ -9901,42 +9948,42 @@
       </c>
       <c r="E168" s="11" t="inlineStr">
         <is>
+          <t>RETURNS - 0.85</t>
+        </is>
+      </c>
+      <c r="F168" s="11" t="inlineStr">
+        <is>
+          <t>Hi, I understand you want to return the damaged item. Please follow the instructions provided by our Damages Department for the return process. If you have any further questions, feel free to ask. Best regards, Sophia</t>
+        </is>
+      </c>
+      <c r="G168" s="11" t="inlineStr">
+        <is>
+          <t>The user is inquiring about the return process for a damaged item, which falls under the RETURNS intent as they are seeking guidance on returning a product.</t>
+        </is>
+      </c>
+      <c r="H168" s="11" t="inlineStr">
+        <is>
+          <t>RETURNING_DAMAGED_PRODUCT - 0.95, RETURNS_PROCESSING - 0.85</t>
+        </is>
+      </c>
+      <c r="I168" s="11" t="inlineStr">
+        <is>
+          <t>Hi, we understand that you want to return the damaged product. Please follow the instructions provided by our Damages Department to initiate the return process. If you have any further questions, feel free to ask. Best regards, Sophia</t>
+        </is>
+      </c>
+      <c r="J168" s="11" t="inlineStr">
+        <is>
+          <t>The user is inquiring about the return process for a damaged product, which aligns with both the RETURNING_DAMAGED_PRODUCT and RETURNS_PROCESSING intents. The bot's likely response would address the return process while acknowledging the damage.</t>
+        </is>
+      </c>
+      <c r="K168" s="11" t="inlineStr">
+        <is>
           <t>RETURNS</t>
         </is>
       </c>
-      <c r="F168" s="11" t="inlineStr">
-        <is>
-          <t>Hi, thank you for reaching out. You can return the item as per our return policy. Please ensure that the item is in its original packaging and condition. If you need further assistance, feel free to ask. Best regards, Sophia</t>
-        </is>
-      </c>
-      <c r="G168" s="11" t="inlineStr">
-        <is>
-          <t>The user is inquiring about the return process for a damaged item, which falls under the RETURNS intent as they are looking for guidance on returning a product.</t>
-        </is>
-      </c>
-      <c r="H168" s="11" t="inlineStr">
-        <is>
-          <t>RETURNING_DAMAGED_PRODUCT</t>
-        </is>
-      </c>
-      <c r="I168" s="11" t="inlineStr">
-        <is>
-          <t>Hi, I understand that you want to return the damaged product. Please follow the instructions provided by our Damages Department to initiate the return process. If you have any further questions, feel free to ask. Best regards, Sophia</t>
-        </is>
-      </c>
-      <c r="J168" s="11" t="inlineStr">
-        <is>
-          <t>The user is inquiring about the return process specifically for a damaged product, which aligns with the sub intent of RETURNING_DAMAGED_PRODUCT.</t>
-        </is>
-      </c>
-      <c r="K168" s="11" t="inlineStr">
-        <is>
-          <t>DAMAGES</t>
-        </is>
-      </c>
       <c r="L168" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -9961,32 +10008,32 @@
       </c>
       <c r="E169" s="11" t="inlineStr">
         <is>
-          <t>ORDER_STATUS</t>
+          <t>ORDER_STATUS - 0.95</t>
         </is>
       </c>
       <c r="F169" s="11" t="inlineStr">
         <is>
-          <t>We are still waiting for a response from our shipping partners regarding your expedited shipping request. We will update you as soon as we have more information.</t>
+          <t>We’re still checking with our shipping partners for an update on your expedited shipping request.</t>
         </is>
       </c>
       <c r="G169" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about an update on their previous request for expedited shipping, which relates directly to the status of their order.</t>
+          <t>The user's inquiry is specifically about the status of their expedited shipping request, which falls under the category of ORDER_STATUS as it relates to the status of an order that has already been placed.</t>
         </is>
       </c>
       <c r="H169" s="11" t="inlineStr">
         <is>
-          <t>SHIPPING_UPDATES</t>
+          <t>SHIPPING_UPDATES - 0.95</t>
         </is>
       </c>
       <c r="I169" s="11" t="inlineStr">
         <is>
-          <t>We are still waiting for a response from our shipping partners regarding your expedited shipping request. We will update you as soon as we have more information.</t>
+          <t>We’re checking with our shipping partners for an update.</t>
         </is>
       </c>
       <c r="J169" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about an update on the expedited shipping request, which falls under the category of shipping updates as it pertains to the status of their order's delivery.</t>
+          <t>The user is inquiring about an update on their expedited shipping request, which directly relates to the status of their order's shipping. This aligns with the SHIPPING_UPDATES sub intent.</t>
         </is>
       </c>
       <c r="K169" s="11" t="inlineStr">
@@ -10021,7 +10068,7 @@
       </c>
       <c r="E170" s="11" t="inlineStr">
         <is>
-          <t>DAMAGES</t>
+          <t>DAMAGES - 0.9, RETURNS - 0.7</t>
         </is>
       </c>
       <c r="F170" s="11" t="inlineStr">
@@ -10036,17 +10083,17 @@
       </c>
       <c r="H170" s="11" t="inlineStr">
         <is>
-          <t>REPLACEMENT_REQUEST</t>
+          <t>REPLACEMENT_REQUEST - 0.85, DAMAGED_RETURN_REQUEST - 0.75</t>
         </is>
       </c>
       <c r="I170" s="11" t="inlineStr">
         <is>
-          <t>Hi,Thank you for your inquiry. Yes, you will need to ship the broken lamp back to us in order to receive a replacement. Please let me know if you need assistance with the return process.Best regards,Sophia</t>
+          <t>Hi, thank you for your inquiry. Yes, you will need to ship the broken lamp back to us in order to receive a replacement. We will provide you with a return shipping label and further instructions shortly. Best regards, Sophia</t>
         </is>
       </c>
       <c r="J170" s="11" t="inlineStr">
         <is>
-          <t>The user is asking if they need to return the broken lamp for a replacement, indicating a request for a replacement due to damage.</t>
+          <t>The user's inquiry about needing to ship back the broken lamp indicates a request for a replacement, which aligns with the REPLACEMENT_REQUEST intent. Additionally, it could also relate to DAMAGED_RETURN_REQUEST since the user is asking about the return process for a damaged item.</t>
         </is>
       </c>
       <c r="K170" s="11" t="inlineStr">
@@ -10081,7 +10128,7 @@
       </c>
       <c r="E171" s="11" t="inlineStr">
         <is>
-          <t>BANTER</t>
+          <t>BANTER - 0.95</t>
         </is>
       </c>
       <c r="F171" s="11" t="inlineStr">
@@ -10091,7 +10138,7 @@
       </c>
       <c r="G171" s="11" t="inlineStr">
         <is>
-          <t>The user's message expresses gratitude for customer service, which aligns with the BANTER intent as it involves friendly conversation and expressions of thanks.</t>
+          <t>The user's message expresses gratitude for customer service, which aligns with the intent of casual conversation and friendly comments, classified as BANTER.</t>
         </is>
       </c>
       <c r="H171" s="11" t="inlineStr">
@@ -10141,32 +10188,32 @@
       </c>
       <c r="E172" s="11" t="inlineStr">
         <is>
-          <t>TRADE_APPLICATION</t>
+          <t>TRADE_APPLICATION - 0.85</t>
         </is>
       </c>
       <c r="F172" s="11" t="inlineStr">
         <is>
-          <t>The trade account provides various benefits including exclusive discounts, access to special promotions, and priority customer service. If you have specific questions about the benefits, feel free to ask!</t>
+          <t>The trade account provides various benefits including exclusive discounts, access to special promotions, and priority customer service.</t>
         </is>
       </c>
       <c r="G172" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the benefits of the trade account, which relates to the trade program and its offerings, thus falling under the TRADE_APPLICATION intent.</t>
+          <t>The user is inquiring about the benefits of the trade account, which falls under the category of trade account inquiries, specifically related to the trade program and its advantages.</t>
         </is>
       </c>
       <c r="H172" s="11" t="inlineStr">
         <is>
-          <t>PROGRAM_BENEFITS_QUERIES</t>
+          <t>PROGRAM_BENEFITS_QUERIES - 0.95</t>
         </is>
       </c>
       <c r="I172" s="11" t="inlineStr">
         <is>
-          <t>The trade account provides various benefits, including exclusive offers and access to special products tailored for design professionals.</t>
+          <t>The trade account provides various benefits, including exclusive offers and access to special products. Would you like more details on specific benefits?</t>
         </is>
       </c>
       <c r="J172" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry specifically asks about the benefits of the trade account, which falls under the PROGRAM_BENEFITS_QUERIES sub-intent.</t>
+          <t>The user's inquiry specifically asks about the benefits of the trade account, which aligns with the PROGRAM_BENEFITS_QUERIES sub intent.</t>
         </is>
       </c>
       <c r="K172" s="11" t="inlineStr">
@@ -10202,7 +10249,7 @@
       </c>
       <c r="E173" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>RETURNS - 0.95, ORDER_STATUS - 0.85</t>
         </is>
       </c>
       <c r="F173" s="11" t="inlineStr">
@@ -10227,17 +10274,17 @@
       </c>
       <c r="J173" s="11" t="inlineStr">
         <is>
-          <t>The user explicitly requests information on how to return an item they did not order, which falls under the category of initiating the return process.</t>
+          <t>The user explicitly mentions wanting to return an item that is not what they ordered and requests information on how to proceed with the return, which falls under the RETURNS_PROCESSING sub intent.</t>
         </is>
       </c>
       <c r="K173" s="11" t="inlineStr">
         <is>
-          <t>RETURNS</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L173" s="11" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10311,7 @@
       </c>
       <c r="E174" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>PRODUCT_AVAILABILITY - 0.95</t>
         </is>
       </c>
       <c r="F174" s="11" t="inlineStr">
@@ -10274,12 +10321,12 @@
       </c>
       <c r="G174" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry is specifically about the quantity of the oak finish dining sets available, which falls under the intent of checking product availability.</t>
+          <t>The user's inquiry about the number of pieces left directly relates to the availability of the product, which falls under the PRODUCT_AVAILABILITY intent.</t>
         </is>
       </c>
       <c r="H174" s="11" t="inlineStr">
         <is>
-          <t>STOCK_STATUS</t>
+          <t>STOCK_STATUS - 0.95, PRODUCT_QUERIES - 0.70</t>
         </is>
       </c>
       <c r="I174" s="11" t="inlineStr">
@@ -10289,17 +10336,17 @@
       </c>
       <c r="J174" s="11" t="inlineStr">
         <is>
-          <t>The user is inquiring about the quantity of the oak finish dining set available, which directly relates to the stock status of the product.</t>
+          <t>The user is inquiring about the quantity of the oak finish dining set available, which directly relates to the stock status of the product. Additionally, the inquiry could also be seen as a general product query regarding the specific details of the product's availability.</t>
         </is>
       </c>
       <c r="K174" s="11" t="inlineStr">
         <is>
-          <t>PRODUCT_AVAILABILITY</t>
+          <t>OTHERS</t>
         </is>
       </c>
       <c r="L174" s="11" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -10324,17 +10371,17 @@
       </c>
       <c r="E175" s="11" t="inlineStr">
         <is>
-          <t>OTHERS</t>
+          <t>OTHERS - 0.8</t>
         </is>
       </c>
       <c r="F175" s="11" t="inlineStr">
         <is>
-          <t>Refund processing times can vary, but typically it takes 5-7 business days after we receive the returned item.</t>
+          <t>The refund processing time can vary, but typically it takes 5-7 business days after we receive the returned item.</t>
         </is>
       </c>
       <c r="G175" s="11" t="inlineStr">
         <is>
-          <t>The user's inquiry about the time it takes for a refund to be processed does not fit neatly into any of the specific intents related to order status, product availability, damages, returns, or trade applications. It is a general question about the refund process, which is why it is classified as 'OTHERS'.</t>
+          <t>The user's inquiry about the refund processing time does not specifically fall under the categories of ORDER_STATUS, RETURNS, or any other defined intent. It is a general question about the refund process, which is why it is classified as OTHERS.</t>
         </is>
       </c>
       <c r="H175" s="11" t="inlineStr">
@@ -10344,12 +10391,12 @@
       </c>
       <c r="I175" s="11" t="inlineStr">
         <is>
-          <t>Your refund will be processed once we receive the returned item. The processing time for the refund can vary, but typically it takes a few business days after we receive the item.</t>
+          <t>Your refund will be processed shortly. Typically, it takes 5-7 business days for the refund to reflect in your account after processing.</t>
         </is>
       </c>
       <c r="J175" s="11" t="inlineStr">
         <is>
-          <t>The user's last message specifically inquires about the processing time for a refund, indicating a focus on the refund status rather than the return process itself.</t>
+          <t>The user is inquiring about the status of a refund, which directly relates to the refund process. This aligns with the REFUND sub-intent as it involves questions about the timing of a refund.</t>
         </is>
       </c>
       <c r="K175" s="11" t="inlineStr">
